--- a/BackTest/2020-01-11 BackTest ETH.xlsx
+++ b/BackTest/2020-01-11 BackTest ETH.xlsx
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -17531,13 +17531,17 @@
         <v>156170</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>155800</v>
+      </c>
+      <c r="K490" t="n">
+        <v>155800</v>
+      </c>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
@@ -17566,14 +17570,22 @@
         <v>156156.6666666667</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>155700</v>
+      </c>
+      <c r="K491" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17601,14 +17613,22 @@
         <v>156140</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>155800</v>
+      </c>
+      <c r="K492" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17636,14 +17656,22 @@
         <v>156126.6666666667</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>155700</v>
+      </c>
+      <c r="K493" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17671,14 +17699,22 @@
         <v>156110</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>155700</v>
+      </c>
+      <c r="K494" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17712,8 +17748,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17741,14 +17783,22 @@
         <v>156085</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>155700</v>
+      </c>
+      <c r="K496" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17776,14 +17826,22 @@
         <v>156071.6666666667</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>155800</v>
+      </c>
+      <c r="K497" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +17869,22 @@
         <v>156063.3333333333</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>155800</v>
+      </c>
+      <c r="K498" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17846,14 +17912,22 @@
         <v>156051.6666666667</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>155800</v>
+      </c>
+      <c r="K499" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17881,14 +17955,22 @@
         <v>156045</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>155600</v>
+      </c>
+      <c r="K500" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17922,8 +18004,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17957,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17992,8 +18086,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18027,8 +18127,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18062,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18097,8 +18209,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18132,8 +18250,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18167,8 +18291,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18202,8 +18332,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18237,8 +18373,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18272,8 +18414,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18307,8 +18455,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18342,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18377,8 +18537,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18412,8 +18578,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18447,8 +18619,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18482,8 +18660,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18517,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18552,8 +18742,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18587,8 +18783,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18622,8 +18824,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18657,8 +18865,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18692,8 +18906,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18727,8 +18947,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18762,8 +18988,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18797,8 +19029,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18832,8 +19070,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18867,8 +19111,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18902,8 +19152,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +19193,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18972,8 +19234,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19007,8 +19275,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19042,8 +19316,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19077,8 +19357,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19112,8 +19398,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19147,8 +19439,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19182,8 +19480,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19217,8 +19521,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19252,8 +19562,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19287,8 +19603,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +19644,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19357,8 +19685,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19386,14 +19720,22 @@
         <v>155481.6666666667</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K543" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19421,14 +19763,22 @@
         <v>155466.6666666667</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>154900</v>
+      </c>
+      <c r="K544" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19456,14 +19806,22 @@
         <v>155453.3333333333</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K545" t="n">
+        <v>155800</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19499,10 +19857,12 @@
       <c r="J546" t="n">
         <v>155000</v>
       </c>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>155800</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M546" t="n">
@@ -19532,15 +19892,15 @@
         <v>155426.6666666667</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>155800</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19573,15 +19933,15 @@
         <v>155415</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>155800</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19614,15 +19974,15 @@
         <v>155405</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>155800</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19655,15 +20015,15 @@
         <v>155395</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>155800</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19696,15 +20056,15 @@
         <v>155383.3333333333</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>155800</v>
+      </c>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19737,15 +20097,15 @@
         <v>155373.3333333333</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>155800</v>
+      </c>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19778,15 +20138,15 @@
         <v>155361.6666666667</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>155800</v>
+      </c>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,15 +20179,15 @@
         <v>155350</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>155800</v>
+      </c>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19860,15 +20220,15 @@
         <v>155341.6666666667</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>155800</v>
+      </c>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19901,15 +20261,15 @@
         <v>155328.3333333333</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>155800</v>
+      </c>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19942,15 +20302,15 @@
         <v>155320</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>155800</v>
+      </c>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19983,15 +20343,15 @@
         <v>155311.6666666667</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>155800</v>
+      </c>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20024,15 +20384,15 @@
         <v>155305</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>155800</v>
+      </c>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20065,15 +20425,15 @@
         <v>155295</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>155800</v>
+      </c>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20106,15 +20466,15 @@
         <v>155283.3333333333</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>155800</v>
+      </c>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20153,7 +20513,9 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>155800</v>
+      </c>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,7 +20554,9 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>155800</v>
+      </c>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20231,7 +20595,9 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>155800</v>
+      </c>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20270,7 +20636,9 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>155800</v>
+      </c>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20309,7 +20677,9 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>155800</v>
+      </c>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20348,7 +20718,9 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>155800</v>
+      </c>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20387,7 +20759,9 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>155800</v>
+      </c>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20420,15 +20794,15 @@
         <v>155210</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>155800</v>
+      </c>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20461,15 +20835,15 @@
         <v>155205</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>155800</v>
+      </c>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20502,15 +20876,15 @@
         <v>155198.3333333333</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>155800</v>
+      </c>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20549,7 +20923,9 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>155800</v>
+      </c>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20582,15 +20958,15 @@
         <v>155186.6666666667</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>155800</v>
+      </c>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20623,15 +20999,15 @@
         <v>155178.3333333333</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>155800</v>
+      </c>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20664,15 +21040,15 @@
         <v>155175</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>155800</v>
+      </c>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20705,15 +21081,15 @@
         <v>155166.6666666667</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>155800</v>
+      </c>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20746,15 +21122,15 @@
         <v>155163.3333333333</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>155800</v>
+      </c>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20787,15 +21163,15 @@
         <v>155160</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>155800</v>
+      </c>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20828,15 +21204,15 @@
         <v>155160</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>155800</v>
+      </c>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20869,15 +21245,15 @@
         <v>155160</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>155800</v>
+      </c>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20916,7 +21292,9 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>155800</v>
+      </c>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20955,7 +21333,9 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>155800</v>
+      </c>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20994,7 +21374,9 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>155800</v>
+      </c>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21033,7 +21415,9 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>155800</v>
+      </c>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21072,7 +21456,9 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>155800</v>
+      </c>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21111,7 +21497,9 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>155800</v>
+      </c>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21150,7 +21538,9 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>155800</v>
+      </c>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21189,7 +21579,9 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>155800</v>
+      </c>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,7 +21620,9 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>155800</v>
+      </c>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21267,7 +21661,9 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>155800</v>
+      </c>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21306,7 +21702,9 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>155800</v>
+      </c>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21345,7 +21743,9 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>155800</v>
+      </c>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21384,7 +21784,9 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>155800</v>
+      </c>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21423,7 +21825,9 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>155800</v>
+      </c>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21462,7 +21866,9 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>155800</v>
+      </c>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21501,7 +21907,9 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>155800</v>
+      </c>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21540,7 +21948,9 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>155800</v>
+      </c>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21579,7 +21989,9 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>155800</v>
+      </c>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21618,7 +22030,9 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>155800</v>
+      </c>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21657,7 +22071,9 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>155800</v>
+      </c>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21696,7 +22112,9 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>155800</v>
+      </c>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21735,7 +22153,9 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>155800</v>
+      </c>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21774,7 +22194,9 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>155800</v>
+      </c>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21813,7 +22235,9 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>155800</v>
+      </c>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21852,7 +22276,9 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>155800</v>
+      </c>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21891,7 +22317,9 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>155800</v>
+      </c>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21930,7 +22358,9 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>155800</v>
+      </c>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21969,7 +22399,9 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>155800</v>
+      </c>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22008,7 +22440,9 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>155800</v>
+      </c>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22047,7 +22481,9 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>155800</v>
+      </c>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22086,7 +22522,9 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>155800</v>
+      </c>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22125,7 +22563,9 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>155800</v>
+      </c>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22164,7 +22604,9 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>155800</v>
+      </c>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22203,7 +22645,9 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>155800</v>
+      </c>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22242,7 +22686,9 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>155800</v>
+      </c>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22281,7 +22727,9 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>155800</v>
+      </c>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22320,7 +22768,9 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>155800</v>
+      </c>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22359,7 +22809,9 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>155800</v>
+      </c>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22398,7 +22850,9 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>155800</v>
+      </c>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22437,7 +22891,9 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>155800</v>
+      </c>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22476,7 +22932,9 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>155800</v>
+      </c>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22515,7 +22973,9 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>155800</v>
+      </c>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22554,7 +23014,9 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>155800</v>
+      </c>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22593,7 +23055,9 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>155800</v>
+      </c>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22632,7 +23096,9 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>155800</v>
+      </c>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22671,7 +23137,9 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>155800</v>
+      </c>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22710,7 +23178,9 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>155800</v>
+      </c>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22749,7 +23219,9 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>155800</v>
+      </c>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22788,7 +23260,9 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>155800</v>
+      </c>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22827,7 +23301,9 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>155800</v>
+      </c>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22866,7 +23342,9 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>155800</v>
+      </c>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22905,7 +23383,9 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>155800</v>
+      </c>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22944,7 +23424,9 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>155800</v>
+      </c>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22983,7 +23465,9 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>155800</v>
+      </c>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23022,7 +23506,9 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>155800</v>
+      </c>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23061,7 +23547,9 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>155800</v>
+      </c>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23100,7 +23588,9 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>155800</v>
+      </c>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23139,7 +23629,9 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>155800</v>
+      </c>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23178,7 +23670,9 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>155800</v>
+      </c>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23217,7 +23711,9 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>155800</v>
+      </c>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23256,7 +23752,9 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>155800</v>
+      </c>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23295,7 +23793,9 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>155800</v>
+      </c>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23334,7 +23834,9 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>155800</v>
+      </c>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23373,7 +23875,9 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>155800</v>
+      </c>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23412,7 +23916,9 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>155800</v>
+      </c>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23451,7 +23957,9 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>155800</v>
+      </c>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23490,7 +23998,9 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>155800</v>
+      </c>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23529,7 +24039,9 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>155800</v>
+      </c>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23568,7 +24080,9 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>155800</v>
+      </c>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23607,7 +24121,9 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>155800</v>
+      </c>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23646,7 +24162,9 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>155800</v>
+      </c>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23685,7 +24203,9 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>155800</v>
+      </c>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23724,7 +24244,9 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>155800</v>
+      </c>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23763,7 +24285,9 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>155800</v>
+      </c>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23802,7 +24326,9 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>155800</v>
+      </c>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23841,7 +24367,9 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>155800</v>
+      </c>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23880,7 +24408,9 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>155800</v>
+      </c>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23919,7 +24449,9 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>155800</v>
+      </c>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23958,7 +24490,9 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>155800</v>
+      </c>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23997,7 +24531,9 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>155800</v>
+      </c>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24036,7 +24572,9 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>155800</v>
+      </c>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24075,7 +24613,9 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>155800</v>
+      </c>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24114,7 +24654,9 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>155800</v>
+      </c>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24153,7 +24695,9 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>155800</v>
+      </c>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24192,7 +24736,9 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>155800</v>
+      </c>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24231,7 +24777,9 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>155800</v>
+      </c>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24270,7 +24818,9 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>155800</v>
+      </c>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24309,7 +24859,9 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>155800</v>
+      </c>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24348,7 +24900,9 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>155800</v>
+      </c>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24387,7 +24941,9 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>155800</v>
+      </c>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24426,7 +24982,9 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>155800</v>
+      </c>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24465,7 +25023,9 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>155800</v>
+      </c>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24504,7 +25064,9 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>155800</v>
+      </c>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24537,13 +25099,17 @@
         <v>155496.6666666667</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K674" t="n">
+        <v>155800</v>
+      </c>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24576,13 +25142,17 @@
         <v>155483.3333333333</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K675" t="n">
+        <v>155800</v>
+      </c>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24615,13 +25185,17 @@
         <v>155470</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>155000</v>
+      </c>
+      <c r="K676" t="n">
+        <v>155800</v>
+      </c>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24654,13 +25228,17 @@
         <v>155456.6666666667</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>154900</v>
+      </c>
+      <c r="K677" t="n">
+        <v>155800</v>
+      </c>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24701,7 +25279,9 @@
       <c r="J678" t="n">
         <v>154900</v>
       </c>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>155800</v>
+      </c>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24742,7 +25322,9 @@
       <c r="J679" t="n">
         <v>154900</v>
       </c>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>155800</v>
+      </c>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24775,13 +25357,17 @@
         <v>155415</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>154600</v>
+      </c>
+      <c r="K680" t="n">
+        <v>155800</v>
+      </c>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24822,7 +25408,9 @@
       <c r="J681" t="n">
         <v>154500</v>
       </c>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>155800</v>
+      </c>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24863,7 +25451,9 @@
       <c r="J682" t="n">
         <v>154500</v>
       </c>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>155800</v>
+      </c>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24902,9 +25492,11 @@
         <v>0</v>
       </c>
       <c r="J683" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K683" t="inlineStr"/>
+        <v>154800</v>
+      </c>
+      <c r="K683" t="n">
+        <v>155800</v>
+      </c>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24945,7 +25537,9 @@
       <c r="J684" t="n">
         <v>154800</v>
       </c>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>155800</v>
+      </c>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24978,15 +25572,15 @@
         <v>155346.6666666667</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>155800</v>
+      </c>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25027,7 +25621,9 @@
       <c r="J686" t="n">
         <v>154600</v>
       </c>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>155800</v>
+      </c>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,9 +25662,11 @@
         <v>0</v>
       </c>
       <c r="J687" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K687" t="inlineStr"/>
+        <v>154800</v>
+      </c>
+      <c r="K687" t="n">
+        <v>155800</v>
+      </c>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25107,9 +25705,11 @@
         <v>0</v>
       </c>
       <c r="J688" t="n">
-        <v>154800</v>
-      </c>
-      <c r="K688" t="inlineStr"/>
+        <v>154900</v>
+      </c>
+      <c r="K688" t="n">
+        <v>155800</v>
+      </c>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25142,15 +25742,15 @@
         <v>155288.3333333333</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>155800</v>
+      </c>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25183,15 +25783,15 @@
         <v>155273.3333333333</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>154800</v>
-      </c>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>155800</v>
+      </c>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25224,15 +25824,15 @@
         <v>155268.3333333333</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>155800</v>
+      </c>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25265,15 +25865,15 @@
         <v>155253.3333333333</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>155800</v>
+      </c>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25306,15 +25906,15 @@
         <v>155241.6666666667</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>155800</v>
+      </c>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25347,15 +25947,15 @@
         <v>155225</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>155800</v>
+      </c>
       <c r="L694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25388,15 +25988,15 @@
         <v>155206.6666666667</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>155800</v>
+      </c>
       <c r="L695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25429,15 +26029,15 @@
         <v>155186.6666666667</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>155800</v>
+      </c>
       <c r="L696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25470,15 +26070,15 @@
         <v>155166.6666666667</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>154500</v>
-      </c>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>155800</v>
+      </c>
       <c r="L697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25511,15 +26111,15 @@
         <v>155150</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>154500</v>
-      </c>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>155800</v>
+      </c>
       <c r="L698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25552,15 +26152,15 @@
         <v>155133.3333333333</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>155800</v>
+      </c>
       <c r="L699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25593,15 +26193,15 @@
         <v>155113.3333333333</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>154500</v>
-      </c>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>155800</v>
+      </c>
       <c r="L700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25634,15 +26234,15 @@
         <v>155093.3333333333</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>154500</v>
-      </c>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>155800</v>
+      </c>
       <c r="L701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25675,15 +26275,15 @@
         <v>155076.6666666667</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>155800</v>
+      </c>
       <c r="L702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25716,15 +26316,15 @@
         <v>155060</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>155800</v>
+      </c>
       <c r="L703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25757,15 +26357,15 @@
         <v>155046.6666666667</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>155800</v>
+      </c>
       <c r="L704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25798,15 +26398,15 @@
         <v>155036.6666666667</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>154800</v>
-      </c>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>155800</v>
+      </c>
       <c r="L705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25839,15 +26439,15 @@
         <v>155020</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>155800</v>
+      </c>
       <c r="L706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25880,15 +26480,15 @@
         <v>155008.3333333333</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>155800</v>
+      </c>
       <c r="L707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25921,15 +26521,15 @@
         <v>154998.3333333333</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>155800</v>
+      </c>
       <c r="L708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25962,15 +26562,15 @@
         <v>154988.3333333333</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>155800</v>
+      </c>
       <c r="L709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26003,15 +26603,15 @@
         <v>154980</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>155800</v>
+      </c>
       <c r="L710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26044,15 +26644,15 @@
         <v>154973.3333333333</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>155800</v>
+      </c>
       <c r="L711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26085,15 +26685,15 @@
         <v>154961.6666666667</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>155800</v>
+      </c>
       <c r="L712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26126,15 +26726,15 @@
         <v>154955</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>155800</v>
+      </c>
       <c r="L713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26167,15 +26767,15 @@
         <v>154948.3333333333</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>155800</v>
+      </c>
       <c r="L714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26208,15 +26808,15 @@
         <v>154941.6666666667</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>155800</v>
+      </c>
       <c r="L715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26249,15 +26849,15 @@
         <v>154931.6666666667</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>155800</v>
+      </c>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26290,15 +26890,15 @@
         <v>154920</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>155800</v>
+      </c>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26331,15 +26931,15 @@
         <v>154905</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>155800</v>
+      </c>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26372,15 +26972,15 @@
         <v>154888.3333333333</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>154800</v>
-      </c>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>155800</v>
+      </c>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26413,15 +27013,15 @@
         <v>154876.6666666667</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>155800</v>
+      </c>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26454,15 +27054,15 @@
         <v>154871.6666666667</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>155800</v>
+      </c>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26495,15 +27095,15 @@
         <v>154865</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>155800</v>
+      </c>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26536,15 +27136,15 @@
         <v>154856.6666666667</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>155800</v>
+      </c>
       <c r="L723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26577,15 +27177,15 @@
         <v>154853.3333333333</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>154900</v>
-      </c>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>155800</v>
+      </c>
       <c r="L724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26618,15 +27218,15 @@
         <v>154850</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>155800</v>
+      </c>
       <c r="L725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26659,15 +27259,15 @@
         <v>154846.6666666667</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>155800</v>
+      </c>
       <c r="L726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26700,15 +27300,15 @@
         <v>154845</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>155000</v>
-      </c>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>155800</v>
+      </c>
       <c r="L727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26741,15 +27341,15 @@
         <v>154841.6666666667</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>155800</v>
+      </c>
       <c r="L728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26782,15 +27382,15 @@
         <v>154838.3333333333</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>155800</v>
+      </c>
       <c r="L729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26823,15 +27423,15 @@
         <v>154836.6666666667</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>155800</v>
+      </c>
       <c r="L730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26864,15 +27464,15 @@
         <v>154835</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>155800</v>
+      </c>
       <c r="L731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26905,15 +27505,15 @@
         <v>154835</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>155800</v>
+      </c>
       <c r="L732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26946,15 +27546,15 @@
         <v>154836.6666666667</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>155800</v>
+      </c>
       <c r="L733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26987,15 +27587,15 @@
         <v>154838.3333333333</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>155800</v>
+      </c>
       <c r="L734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27028,15 +27628,15 @@
         <v>154845</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>155800</v>
+      </c>
       <c r="L735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27069,15 +27669,15 @@
         <v>154853.3333333333</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>155800</v>
+      </c>
       <c r="L736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27110,15 +27710,15 @@
         <v>154861.6666666667</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>155800</v>
+      </c>
       <c r="L737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27151,15 +27751,15 @@
         <v>154870</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>155800</v>
+      </c>
       <c r="L738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27198,7 +27798,9 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>155800</v>
+      </c>
       <c r="L739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27237,7 +27839,9 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>155800</v>
+      </c>
       <c r="L740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27276,7 +27880,9 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>155800</v>
+      </c>
       <c r="L741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27315,7 +27921,9 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>155800</v>
+      </c>
       <c r="L742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27354,7 +27962,9 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>155800</v>
+      </c>
       <c r="L743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27387,15 +27997,15 @@
         <v>154923.3333333333</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>155800</v>
+      </c>
       <c r="L744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27428,15 +28038,15 @@
         <v>154933.3333333333</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>155800</v>
+      </c>
       <c r="L745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27469,15 +28079,15 @@
         <v>154940</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>155800</v>
+      </c>
       <c r="L746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27516,7 +28126,9 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>155800</v>
+      </c>
       <c r="L747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27555,7 +28167,9 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>155800</v>
+      </c>
       <c r="L748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27594,7 +28208,9 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>155800</v>
+      </c>
       <c r="L749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27633,7 +28249,9 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>155800</v>
+      </c>
       <c r="L750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27672,7 +28290,9 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>155800</v>
+      </c>
       <c r="L751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27711,7 +28331,9 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>155800</v>
+      </c>
       <c r="L752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27750,7 +28372,9 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>155800</v>
+      </c>
       <c r="L753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27789,7 +28413,9 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>155800</v>
+      </c>
       <c r="L754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27828,7 +28454,9 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>155800</v>
+      </c>
       <c r="L755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27867,7 +28495,9 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>155800</v>
+      </c>
       <c r="L756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27906,7 +28536,9 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>155800</v>
+      </c>
       <c r="L757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27945,7 +28577,9 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>155800</v>
+      </c>
       <c r="L758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27984,7 +28618,9 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>155800</v>
+      </c>
       <c r="L759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28023,7 +28659,9 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>155800</v>
+      </c>
       <c r="L760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28062,7 +28700,9 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>155800</v>
+      </c>
       <c r="L761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28101,7 +28741,9 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>155800</v>
+      </c>
       <c r="L762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28140,7 +28782,9 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>155800</v>
+      </c>
       <c r="L763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28179,7 +28823,9 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>155800</v>
+      </c>
       <c r="L764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28218,7 +28864,9 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>155800</v>
+      </c>
       <c r="L765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28257,7 +28905,9 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>155800</v>
+      </c>
       <c r="L766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28296,7 +28946,9 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>155800</v>
+      </c>
       <c r="L767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28335,7 +28987,9 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>155800</v>
+      </c>
       <c r="L768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28374,7 +29028,9 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>155800</v>
+      </c>
       <c r="L769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28413,7 +29069,9 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>155800</v>
+      </c>
       <c r="L770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28452,7 +29110,9 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>155800</v>
+      </c>
       <c r="L771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28491,7 +29151,9 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>155800</v>
+      </c>
       <c r="L772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28530,7 +29192,9 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>155800</v>
+      </c>
       <c r="L773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28569,7 +29233,9 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>155800</v>
+      </c>
       <c r="L774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28608,7 +29274,9 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>155800</v>
+      </c>
       <c r="L775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28647,7 +29315,9 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>155800</v>
+      </c>
       <c r="L776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28686,7 +29356,9 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>155800</v>
+      </c>
       <c r="L777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28725,7 +29397,9 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>155800</v>
+      </c>
       <c r="L778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28764,7 +29438,9 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>155800</v>
+      </c>
       <c r="L779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28803,7 +29479,9 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>155800</v>
+      </c>
       <c r="L780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28842,7 +29520,9 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>155800</v>
+      </c>
       <c r="L781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28881,7 +29561,9 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>155800</v>
+      </c>
       <c r="L782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28920,7 +29602,9 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>155800</v>
+      </c>
       <c r="L783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28959,7 +29643,9 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>155800</v>
+      </c>
       <c r="L784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28998,7 +29684,9 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>155800</v>
+      </c>
       <c r="L785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29037,7 +29725,9 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>155800</v>
+      </c>
       <c r="L786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29076,7 +29766,9 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>155800</v>
+      </c>
       <c r="L787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29115,7 +29807,9 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>155800</v>
+      </c>
       <c r="L788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29154,7 +29848,9 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>155800</v>
+      </c>
       <c r="L789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29193,7 +29889,9 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>155800</v>
+      </c>
       <c r="L790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29232,7 +29930,9 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>155800</v>
+      </c>
       <c r="L791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29271,7 +29971,9 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>155800</v>
+      </c>
       <c r="L792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29310,7 +30012,9 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>155800</v>
+      </c>
       <c r="L793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29349,7 +30053,9 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>155800</v>
+      </c>
       <c r="L794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29388,7 +30094,9 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>155800</v>
+      </c>
       <c r="L795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29427,7 +30135,9 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>155800</v>
+      </c>
       <c r="L796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29466,7 +30176,9 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>155800</v>
+      </c>
       <c r="L797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29505,7 +30217,9 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>155800</v>
+      </c>
       <c r="L798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29544,7 +30258,9 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>155800</v>
+      </c>
       <c r="L799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29583,7 +30299,9 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>155800</v>
+      </c>
       <c r="L800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29622,7 +30340,9 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>155800</v>
+      </c>
       <c r="L801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29661,7 +30381,9 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>155800</v>
+      </c>
       <c r="L802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29700,7 +30422,9 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>155800</v>
+      </c>
       <c r="L803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29739,7 +30463,9 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>155800</v>
+      </c>
       <c r="L804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29778,7 +30504,9 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>155800</v>
+      </c>
       <c r="L805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29817,7 +30545,9 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>155800</v>
+      </c>
       <c r="L806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29856,7 +30586,9 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>155800</v>
+      </c>
       <c r="L807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29895,7 +30627,9 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>155800</v>
+      </c>
       <c r="L808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29934,7 +30668,9 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>155800</v>
+      </c>
       <c r="L809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29973,7 +30709,9 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>155800</v>
+      </c>
       <c r="L810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30012,7 +30750,9 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>155800</v>
+      </c>
       <c r="L811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30051,7 +30791,9 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>155800</v>
+      </c>
       <c r="L812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30090,7 +30832,9 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>155800</v>
+      </c>
       <c r="L813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30129,7 +30873,9 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>155800</v>
+      </c>
       <c r="L814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30168,7 +30914,9 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>155800</v>
+      </c>
       <c r="L815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30207,7 +30955,9 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>155800</v>
+      </c>
       <c r="L816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30246,7 +30996,9 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>155800</v>
+      </c>
       <c r="L817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30285,7 +31037,9 @@
         <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>155800</v>
+      </c>
       <c r="L818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30324,7 +31078,9 @@
         <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>155800</v>
+      </c>
       <c r="L819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30363,7 +31119,9 @@
         <v>0</v>
       </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>155800</v>
+      </c>
       <c r="L820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30402,7 +31160,9 @@
         <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>155800</v>
+      </c>
       <c r="L821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30441,7 +31201,9 @@
         <v>0</v>
       </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>155800</v>
+      </c>
       <c r="L822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30480,7 +31242,9 @@
         <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>155800</v>
+      </c>
       <c r="L823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30519,7 +31283,9 @@
         <v>0</v>
       </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>155800</v>
+      </c>
       <c r="L824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30558,7 +31324,9 @@
         <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>155800</v>
+      </c>
       <c r="L825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30597,7 +31365,9 @@
         <v>0</v>
       </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>155800</v>
+      </c>
       <c r="L826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30636,7 +31406,9 @@
         <v>0</v>
       </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>155800</v>
+      </c>
       <c r="L827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30675,7 +31447,9 @@
         <v>0</v>
       </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>155800</v>
+      </c>
       <c r="L828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30714,7 +31488,9 @@
         <v>0</v>
       </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>155800</v>
+      </c>
       <c r="L829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30753,7 +31529,9 @@
         <v>0</v>
       </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>155800</v>
+      </c>
       <c r="L830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30792,7 +31570,9 @@
         <v>0</v>
       </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>155800</v>
+      </c>
       <c r="L831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30831,7 +31611,9 @@
         <v>0</v>
       </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>155800</v>
+      </c>
       <c r="L832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30870,7 +31652,9 @@
         <v>0</v>
       </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>155800</v>
+      </c>
       <c r="L833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30909,7 +31693,9 @@
         <v>0</v>
       </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>155800</v>
+      </c>
       <c r="L834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30948,7 +31734,9 @@
         <v>0</v>
       </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>155800</v>
+      </c>
       <c r="L835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30987,7 +31775,9 @@
         <v>0</v>
       </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>155800</v>
+      </c>
       <c r="L836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31026,7 +31816,9 @@
         <v>0</v>
       </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>155800</v>
+      </c>
       <c r="L837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31065,7 +31857,9 @@
         <v>0</v>
       </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>155800</v>
+      </c>
       <c r="L838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31104,7 +31898,9 @@
         <v>0</v>
       </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>155800</v>
+      </c>
       <c r="L839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31143,7 +31939,9 @@
         <v>0</v>
       </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>155800</v>
+      </c>
       <c r="L840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31182,7 +31980,9 @@
         <v>0</v>
       </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>155800</v>
+      </c>
       <c r="L841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31221,7 +32021,9 @@
         <v>0</v>
       </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>155800</v>
+      </c>
       <c r="L842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31257,17 +32059,19 @@
         <v>0</v>
       </c>
       <c r="I843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>155800</v>
+      </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>1</v>
+        <v>1.014255455712452</v>
       </c>
     </row>
     <row r="844">
@@ -31296,15 +32100,11 @@
         <v>0</v>
       </c>
       <c r="I844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -31335,15 +32135,11 @@
         <v>0</v>
       </c>
       <c r="I845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -31378,11 +32174,7 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -31417,11 +32209,7 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -31456,11 +32244,7 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -31491,16 +32275,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
@@ -31528,7 +32310,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
@@ -31563,7 +32345,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
@@ -31598,7 +32380,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
@@ -31633,7 +32415,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
@@ -31668,7 +32450,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
@@ -31703,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
@@ -32438,7 +33220,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
@@ -32473,7 +33255,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
@@ -33838,7 +34620,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
@@ -33873,7 +34655,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
@@ -33908,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
@@ -33943,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest ETH.xlsx
+++ b/BackTest/2020-01-11 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5005,7 +5005,7 @@
         <v>-1051.052999321674</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-954.8379993216738</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1235.309199321674</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1193.091399321674</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1228.631099321674</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1227.399099321674</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1227.409099321674</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1227.617999321674</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1581.599521402892</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1672.301021402892</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1684.854521402892</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1628.048121402892</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1488.173621402892</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1541.897193488467</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2662.742582823772</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2634.052867400258</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2638.578867400257</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2904.265367400257</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-3025.807267400257</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -24376,10 +24376,14 @@
         <v>-3788.14289447005</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J727" t="n">
+        <v>155100</v>
+      </c>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
@@ -24409,11 +24413,19 @@
         <v>-3788.14289447005</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J728" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24442,11 +24454,19 @@
         <v>-3805.149244502246</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J729" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24475,11 +24495,19 @@
         <v>-3805.149244502246</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J730" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24511,8 +24539,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24544,8 +24578,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24574,11 +24614,19 @@
         <v>-3816.416044502246</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J733" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24610,8 +24658,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24694,19 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>155000</v>
+      </c>
+      <c r="J735" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24735,19 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>154900</v>
+      </c>
+      <c r="J736" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24776,19 @@
         <v>-3826.001044502246</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>154900</v>
+      </c>
+      <c r="J737" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24742,8 +24820,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24856,19 @@
         <v>-3925.464544502246</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>154600</v>
+      </c>
+      <c r="J739" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24897,19 @@
         <v>-3925.464544502246</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="J740" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +24938,19 @@
         <v>-3892.924044502246</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>154500</v>
+      </c>
+      <c r="J741" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +24979,19 @@
         <v>-3892.924044502246</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J742" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25020,19 @@
         <v>-3892.924044502246</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J743" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25061,19 @@
         <v>-3914.553344502246</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J744" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25102,19 @@
         <v>-3894.547344502246</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>154600</v>
+      </c>
+      <c r="J745" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25143,19 @@
         <v>-3884.547344502246</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J746" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25184,19 @@
         <v>-3919.947344502246</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>154900</v>
+      </c>
+      <c r="J747" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,15 +25225,19 @@
         <v>-3919.947344502246</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>154600</v>
       </c>
       <c r="J748" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K748" t="inlineStr"/>
+        <v>155100</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25106,17 +25266,17 @@
         <v>-3912.117844502246</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>154600</v>
       </c>
       <c r="J749" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L749" t="n">
@@ -25147,17 +25307,17 @@
         <v>-3525.183530455854</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>154800</v>
       </c>
       <c r="J750" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L750" t="n">
@@ -25188,11 +25348,13 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>155200</v>
+      </c>
       <c r="J751" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -25227,11 +25389,13 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>154700</v>
+      </c>
       <c r="J752" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -25266,11 +25430,13 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>154700</v>
+      </c>
       <c r="J753" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -25305,11 +25471,13 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>154700</v>
+      </c>
       <c r="J754" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -25344,11 +25512,13 @@
         <v>-3666.122630455855</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>154700</v>
+      </c>
       <c r="J755" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -25383,11 +25553,13 @@
         <v>-3666.122630455855</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>154500</v>
+      </c>
       <c r="J756" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -25422,11 +25594,13 @@
         <v>-3632.122430455855</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>154500</v>
+      </c>
       <c r="J757" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -25461,13 +25635,13 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>154700</v>
       </c>
       <c r="J758" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -25502,11 +25676,13 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>154500</v>
+      </c>
       <c r="J759" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -25541,13 +25717,13 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>154500</v>
       </c>
       <c r="J760" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -25582,13 +25758,13 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>154500</v>
       </c>
       <c r="J761" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -25623,13 +25799,13 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>154700</v>
       </c>
       <c r="J762" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -25664,13 +25840,13 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>154700</v>
       </c>
       <c r="J763" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -25705,13 +25881,13 @@
         <v>-3655.683533652612</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>154700</v>
       </c>
       <c r="J764" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -25746,13 +25922,13 @@
         <v>-3689.427533652613</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>154900</v>
       </c>
       <c r="J765" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -25787,13 +25963,13 @@
         <v>-3608.102133652612</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>154700</v>
       </c>
       <c r="J766" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -25828,11 +26004,13 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>154800</v>
+      </c>
       <c r="J767" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -25867,11 +26045,13 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>154900</v>
+      </c>
       <c r="J768" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -25906,11 +26086,13 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>154900</v>
+      </c>
       <c r="J769" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -25945,11 +26127,13 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>154900</v>
+      </c>
       <c r="J770" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -25984,11 +26168,13 @@
         <v>-3615.483433652612</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>154900</v>
+      </c>
       <c r="J771" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26023,11 +26209,13 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>154800</v>
+      </c>
       <c r="J772" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26062,11 +26250,13 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>154900</v>
+      </c>
       <c r="J773" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26101,11 +26291,13 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>154900</v>
+      </c>
       <c r="J774" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26140,11 +26332,13 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>154900</v>
+      </c>
       <c r="J775" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26183,7 +26377,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26222,7 +26416,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26261,7 +26455,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26296,11 +26490,13 @@
         <v>-3607.337433652612</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>154800</v>
+      </c>
       <c r="J779" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26339,7 +26535,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26374,11 +26570,13 @@
         <v>-3600.587133652612</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>155000</v>
+      </c>
       <c r="J781" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26417,7 +26615,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26456,7 +26654,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26495,7 +26693,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26534,7 +26732,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26573,7 +26771,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26608,11 +26806,13 @@
         <v>-3591.431833652613</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>155000</v>
+      </c>
       <c r="J787" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -26651,7 +26851,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -26690,7 +26890,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -26729,7 +26929,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -26768,7 +26968,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -26807,7 +27007,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -26846,7 +27046,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -26885,7 +27085,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -26924,7 +27124,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -26963,7 +27163,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27002,7 +27202,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27041,7 +27241,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27080,7 +27280,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27119,7 +27319,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27158,7 +27358,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27197,7 +27397,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27236,7 +27436,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27275,7 +27475,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27310,11 +27510,13 @@
         <v>-3589.955133652612</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>155200</v>
+      </c>
       <c r="J805" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27353,7 +27555,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27392,7 +27594,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27431,7 +27633,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27470,7 +27672,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27505,11 +27707,13 @@
         <v>-3624.640633652612</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>155300</v>
+      </c>
       <c r="J810" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27544,11 +27748,13 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>155200</v>
+      </c>
       <c r="J811" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27583,11 +27789,13 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>155500</v>
+      </c>
       <c r="J812" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27626,7 +27834,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27665,7 +27873,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -27700,11 +27908,13 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>155500</v>
+      </c>
       <c r="J815" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -27743,7 +27953,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -27778,11 +27988,13 @@
         <v>-3677.279071916278</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>155400</v>
+      </c>
       <c r="J817" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -27817,11 +28029,13 @@
         <v>-3677.279071916278</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>155400</v>
+      </c>
       <c r="J818" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -27860,7 +28074,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -27899,7 +28113,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -27934,11 +28148,13 @@
         <v>-3690.151171916278</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>155500</v>
+      </c>
       <c r="J821" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -27977,7 +28193,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28012,11 +28228,13 @@
         <v>-3685.388276993399</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>155300</v>
+      </c>
       <c r="J823" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28051,11 +28269,13 @@
         <v>-3694.374476993399</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>155600</v>
+      </c>
       <c r="J824" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28090,11 +28310,13 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>155300</v>
+      </c>
       <c r="J825" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28129,11 +28351,13 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>155400</v>
+      </c>
       <c r="J826" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28168,11 +28392,13 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>155400</v>
+      </c>
       <c r="J827" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28207,11 +28433,13 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>155400</v>
+      </c>
       <c r="J828" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28246,11 +28474,13 @@
         <v>-2360.845588758105</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>155400</v>
+      </c>
       <c r="J829" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28289,7 +28519,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28328,7 +28558,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28367,7 +28597,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28406,7 +28636,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28445,7 +28675,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28484,7 +28714,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28523,7 +28753,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28558,11 +28788,13 @@
         <v>-2645.670988758105</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>155200</v>
+      </c>
       <c r="J837" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28597,11 +28829,13 @@
         <v>-2715.770588758105</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>155100</v>
+      </c>
       <c r="J838" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28640,7 +28874,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28675,11 +28909,13 @@
         <v>-2682.075088758105</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>155000</v>
+      </c>
       <c r="J840" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28714,11 +28950,13 @@
         <v>-2476.498788758105</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>155300</v>
+      </c>
       <c r="J841" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28757,7 +28995,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28796,7 +29034,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28835,7 +29073,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -28874,7 +29112,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28913,7 +29151,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28952,7 +29190,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28991,7 +29229,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29030,7 +29268,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29069,7 +29307,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29108,7 +29346,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29147,7 +29385,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29186,7 +29424,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29225,7 +29463,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29264,7 +29502,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29303,7 +29541,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29342,7 +29580,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29381,7 +29619,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29420,7 +29658,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29459,7 +29697,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29498,7 +29736,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29537,7 +29775,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29576,7 +29814,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29615,7 +29853,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29654,7 +29892,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29693,7 +29931,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29732,7 +29970,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29771,7 +30009,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29810,7 +30048,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29849,7 +30087,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29888,7 +30126,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29927,7 +30165,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29966,7 +30204,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30005,7 +30243,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -30044,7 +30282,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -30083,7 +30321,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -30122,7 +30360,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -30161,7 +30399,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -30200,7 +30438,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -30239,7 +30477,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -30278,7 +30516,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30317,7 +30555,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30356,7 +30594,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30395,7 +30633,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30434,7 +30672,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30473,7 +30711,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30512,7 +30750,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30551,7 +30789,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30590,7 +30828,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30629,7 +30867,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30668,7 +30906,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30707,7 +30945,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30746,7 +30984,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30785,7 +31023,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30824,7 +31062,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30863,7 +31101,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30902,7 +31140,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30941,7 +31179,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30980,7 +31218,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31019,7 +31257,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31058,7 +31296,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -31097,7 +31335,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -31136,7 +31374,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -31175,7 +31413,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -31214,7 +31452,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -31253,7 +31491,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -31292,7 +31530,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -31331,7 +31569,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -31370,7 +31608,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31409,7 +31647,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31444,11 +31682,11 @@
         <v>-866.3805594911042</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31483,11 +31721,11 @@
         <v>-890.8380594911042</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31526,7 +31764,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31561,11 +31799,11 @@
         <v>-917.4976594911043</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31604,7 +31842,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31639,11 +31877,11 @@
         <v>-1079.321459491104</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31682,7 +31920,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31721,7 +31959,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31760,7 +31998,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31799,7 +32037,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31838,7 +32076,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31877,7 +32115,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31916,7 +32154,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31955,7 +32193,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31994,7 +32232,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -32033,7 +32271,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -32072,7 +32310,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -32111,7 +32349,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -32150,7 +32388,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -32189,7 +32427,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -32228,7 +32466,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -32267,7 +32505,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -32306,7 +32544,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -32345,7 +32583,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -32384,7 +32622,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -32423,7 +32661,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -32462,7 +32700,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -32501,7 +32739,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -32540,7 +32778,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -32579,7 +32817,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -32618,7 +32856,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -32657,7 +32895,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32696,7 +32934,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32735,7 +32973,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32774,7 +33012,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32813,7 +33051,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32848,712 +33086,838 @@
         <v>-819.6148186622644</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>154600</v>
+        <v>155100</v>
       </c>
       <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L947" t="n">
+        <v>1</v>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C948" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D948" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E948" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F948" t="n">
+        <v>28.2968</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-847.9116186622643</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L948" t="n">
+        <v>1</v>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F949" t="n">
+        <v>11.0474</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-847.9116186622643</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L949" t="n">
+        <v>1</v>
+      </c>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C950" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D950" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E950" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F950" t="n">
+        <v>110.0832</v>
+      </c>
+      <c r="G950" t="n">
+        <v>-957.9948186622644</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L950" t="n">
+        <v>1</v>
+      </c>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C951" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D951" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E951" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F951" t="n">
+        <v>73.6096</v>
+      </c>
+      <c r="G951" t="n">
+        <v>-957.9948186622644</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L951" t="n">
+        <v>1</v>
+      </c>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C952" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D952" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E952" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F952" t="n">
+        <v>64.2754</v>
+      </c>
+      <c r="G952" t="n">
+        <v>-1022.270218662264</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L952" t="n">
+        <v>1</v>
+      </c>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C953" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D953" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E953" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F953" t="n">
+        <v>8.4335</v>
+      </c>
+      <c r="G953" t="n">
+        <v>-1030.703718662264</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L953" t="n">
+        <v>1</v>
+      </c>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C954" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D954" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E954" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F954" t="n">
+        <v>26.4153</v>
+      </c>
+      <c r="G954" t="n">
+        <v>-1004.288418662264</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L954" t="n">
+        <v>1</v>
+      </c>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F955" t="n">
+        <v>5.8279</v>
+      </c>
+      <c r="G955" t="n">
+        <v>-1004.288418662264</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L955" t="n">
+        <v>1</v>
+      </c>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C956" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D956" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E956" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F956" t="n">
+        <v>24.7348</v>
+      </c>
+      <c r="G956" t="n">
+        <v>-979.5536186622645</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L956" t="n">
+        <v>1</v>
+      </c>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C957" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D957" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E957" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F957" t="n">
+        <v>25.8651</v>
+      </c>
+      <c r="G957" t="n">
+        <v>-979.5536186622645</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L957" t="n">
+        <v>1</v>
+      </c>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C958" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D958" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E958" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F958" t="n">
+        <v>77.21854449339207</v>
+      </c>
+      <c r="G958" t="n">
+        <v>-902.3350741688724</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L958" t="n">
+        <v>1</v>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C959" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D959" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E959" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F959" t="n">
+        <v>20.5824</v>
+      </c>
+      <c r="G959" t="n">
+        <v>-922.9174741688724</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L959" t="n">
+        <v>1</v>
+      </c>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C960" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D960" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E960" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F960" t="n">
+        <v>13.1064013215859</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-922.9174741688724</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L960" t="n">
+        <v>1</v>
+      </c>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C961" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D961" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E961" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F961" t="n">
+        <v>5.2059</v>
+      </c>
+      <c r="G961" t="n">
+        <v>-917.7115741688724</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L961" t="n">
+        <v>1</v>
+      </c>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F962" t="n">
+        <v>14.148</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-931.8595741688724</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L962" t="n">
+        <v>1</v>
+      </c>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C963" t="n">
+        <v>159100</v>
+      </c>
+      <c r="D963" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E963" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F963" t="n">
+        <v>8.505599999999999</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-923.3539741688725</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L963" t="n">
+        <v>1</v>
+      </c>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C964" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D964" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E964" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F964" t="n">
+        <v>67.4273</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-990.7812741688724</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L964" t="n">
+        <v>1</v>
+      </c>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C965" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D965" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E965" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F965" t="n">
+        <v>41.88169798994975</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-948.8995761789226</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L965" t="n">
+        <v>1</v>
+      </c>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C966" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D966" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E966" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F966" t="n">
+        <v>14.5896</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-948.8995761789226</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L966" t="n">
+        <v>1</v>
+      </c>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>159200</v>
+      </c>
+      <c r="C967" t="n">
+        <v>159300</v>
+      </c>
+      <c r="D967" t="n">
+        <v>159300</v>
+      </c>
+      <c r="E967" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F967" t="n">
+        <v>54.4659</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-894.4336761789226</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>159300</v>
+      </c>
+      <c r="C968" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D968" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E968" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F968" t="n">
+        <v>24.345</v>
+      </c>
+      <c r="G968" t="n">
+        <v>-918.7786761789226</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K968" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L947" t="n">
-        <v>1.024107373868047</v>
-      </c>
-      <c r="M947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C948" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D948" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E948" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F948" t="n">
-        <v>28.2968</v>
-      </c>
-      <c r="G948" t="n">
-        <v>-847.9116186622643</v>
-      </c>
-      <c r="H948" t="n">
-        <v>3</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
-      <c r="L948" t="n">
-        <v>1</v>
-      </c>
-      <c r="M948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F949" t="n">
-        <v>11.0474</v>
-      </c>
-      <c r="G949" t="n">
-        <v>-847.9116186622643</v>
-      </c>
-      <c r="H949" t="n">
-        <v>3</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
-      <c r="L949" t="n">
-        <v>1</v>
-      </c>
-      <c r="M949" t="inlineStr"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C950" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D950" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E950" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F950" t="n">
-        <v>110.0832</v>
-      </c>
-      <c r="G950" t="n">
-        <v>-957.9948186622644</v>
-      </c>
-      <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
-      <c r="L950" t="n">
-        <v>1</v>
-      </c>
-      <c r="M950" t="inlineStr"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="B951" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C951" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D951" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E951" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F951" t="n">
-        <v>73.6096</v>
-      </c>
-      <c r="G951" t="n">
-        <v>-957.9948186622644</v>
-      </c>
-      <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
-      <c r="L951" t="n">
-        <v>1</v>
-      </c>
-      <c r="M951" t="inlineStr"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-      <c r="B952" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C952" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D952" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E952" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F952" t="n">
-        <v>64.2754</v>
-      </c>
-      <c r="G952" t="n">
-        <v>-1022.270218662264</v>
-      </c>
-      <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
-      <c r="L952" t="n">
-        <v>1</v>
-      </c>
-      <c r="M952" t="inlineStr"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B953" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C953" t="n">
-        <v>158500</v>
-      </c>
-      <c r="D953" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E953" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F953" t="n">
-        <v>8.4335</v>
-      </c>
-      <c r="G953" t="n">
-        <v>-1030.703718662264</v>
-      </c>
-      <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
-      <c r="L953" t="n">
-        <v>1</v>
-      </c>
-      <c r="M953" t="inlineStr"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-      <c r="B954" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C954" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D954" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E954" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F954" t="n">
-        <v>26.4153</v>
-      </c>
-      <c r="G954" t="n">
-        <v>-1004.288418662264</v>
-      </c>
-      <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
-      <c r="L954" t="n">
-        <v>1</v>
-      </c>
-      <c r="M954" t="inlineStr"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="B955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F955" t="n">
-        <v>5.8279</v>
-      </c>
-      <c r="G955" t="n">
-        <v>-1004.288418662264</v>
-      </c>
-      <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
-      <c r="L955" t="n">
-        <v>1</v>
-      </c>
-      <c r="M955" t="inlineStr"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="B956" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C956" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D956" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E956" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F956" t="n">
-        <v>24.7348</v>
-      </c>
-      <c r="G956" t="n">
-        <v>-979.5536186622645</v>
-      </c>
-      <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
-      <c r="L956" t="n">
-        <v>1</v>
-      </c>
-      <c r="M956" t="inlineStr"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B957" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C957" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D957" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E957" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F957" t="n">
-        <v>25.8651</v>
-      </c>
-      <c r="G957" t="n">
-        <v>-979.5536186622645</v>
-      </c>
-      <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
-      <c r="L957" t="n">
-        <v>1</v>
-      </c>
-      <c r="M957" t="inlineStr"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-      <c r="B958" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C958" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D958" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E958" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F958" t="n">
-        <v>77.21854449339207</v>
-      </c>
-      <c r="G958" t="n">
-        <v>-902.3350741688724</v>
-      </c>
-      <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
-      <c r="L958" t="n">
-        <v>1</v>
-      </c>
-      <c r="M958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C959" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D959" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E959" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F959" t="n">
-        <v>20.5824</v>
-      </c>
-      <c r="G959" t="n">
-        <v>-922.9174741688724</v>
-      </c>
-      <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
-      <c r="L959" t="n">
-        <v>1</v>
-      </c>
-      <c r="M959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C960" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D960" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E960" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F960" t="n">
-        <v>13.1064013215859</v>
-      </c>
-      <c r="G960" t="n">
-        <v>-922.9174741688724</v>
-      </c>
-      <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
-      <c r="L960" t="n">
-        <v>1</v>
-      </c>
-      <c r="M960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C961" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D961" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E961" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F961" t="n">
-        <v>5.2059</v>
-      </c>
-      <c r="G961" t="n">
-        <v>-917.7115741688724</v>
-      </c>
-      <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
-      <c r="L961" t="n">
-        <v>1</v>
-      </c>
-      <c r="M961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F962" t="n">
-        <v>14.148</v>
-      </c>
-      <c r="G962" t="n">
-        <v>-931.8595741688724</v>
-      </c>
-      <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
-      <c r="L962" t="n">
-        <v>1</v>
-      </c>
-      <c r="M962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C963" t="n">
-        <v>159100</v>
-      </c>
-      <c r="D963" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E963" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F963" t="n">
-        <v>8.505599999999999</v>
-      </c>
-      <c r="G963" t="n">
-        <v>-923.3539741688725</v>
-      </c>
-      <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
-      <c r="L963" t="n">
-        <v>1</v>
-      </c>
-      <c r="M963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C964" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D964" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E964" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F964" t="n">
-        <v>67.4273</v>
-      </c>
-      <c r="G964" t="n">
-        <v>-990.7812741688724</v>
-      </c>
-      <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C965" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D965" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E965" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F965" t="n">
-        <v>41.88169798994975</v>
-      </c>
-      <c r="G965" t="n">
-        <v>-948.8995761789226</v>
-      </c>
-      <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
-      <c r="L965" t="n">
-        <v>1</v>
-      </c>
-      <c r="M965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C966" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D966" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E966" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F966" t="n">
-        <v>14.5896</v>
-      </c>
-      <c r="G966" t="n">
-        <v>-948.8995761789226</v>
-      </c>
-      <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
-      <c r="L966" t="n">
-        <v>1</v>
-      </c>
-      <c r="M966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>159200</v>
-      </c>
-      <c r="C967" t="n">
-        <v>159300</v>
-      </c>
-      <c r="D967" t="n">
-        <v>159300</v>
-      </c>
-      <c r="E967" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F967" t="n">
-        <v>54.4659</v>
-      </c>
-      <c r="G967" t="n">
-        <v>-894.4336761789226</v>
-      </c>
-      <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
-      <c r="L967" t="n">
-        <v>1</v>
-      </c>
-      <c r="M967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>159300</v>
-      </c>
-      <c r="C968" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D968" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E968" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F968" t="n">
-        <v>24.345</v>
-      </c>
-      <c r="G968" t="n">
-        <v>-918.7786761789226</v>
-      </c>
-      <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
-        <v>1</v>
+        <v>1.021434558349452</v>
       </c>
       <c r="M968" t="inlineStr"/>
     </row>
@@ -33613,7 +33977,7 @@
         <v>-794.7440761789227</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33646,7 +34010,7 @@
         <v>-877.424009512256</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33679,7 +34043,7 @@
         <v>-668.7416089281926</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33712,7 +34076,7 @@
         <v>100.0678739087367</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33745,7 +34109,7 @@
         <v>218.9855739087367</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33778,7 +34142,7 @@
         <v>-237.5156260912633</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33811,7 +34175,7 @@
         <v>-177.0914243478013</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33844,7 +34208,7 @@
         <v>-320.6781243478013</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33877,7 +34241,7 @@
         <v>-543.6625243478013</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33910,7 +34274,7 @@
         <v>-1088.567624347801</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33943,7 +34307,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33976,7 +34340,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34009,7 +34373,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34042,7 +34406,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34075,7 +34439,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34108,7 +34472,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34141,7 +34505,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34174,7 +34538,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34207,7 +34571,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34240,7 +34604,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34273,7 +34637,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34306,7 +34670,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34339,7 +34703,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34372,7 +34736,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34405,7 +34769,7 @@
         <v>-1319.216967739322</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34438,7 +34802,7 @@
         <v>-1352.295567739322</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34471,7 +34835,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34504,7 +34868,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34537,7 +34901,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34570,7 +34934,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34603,7 +34967,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34636,7 +35000,7 @@
         <v>-1583.489367739322</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35098,7 +35462,7 @@
         <v>-1420.80323906055</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35131,7 +35495,7 @@
         <v>-1420.80323906055</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35164,7 +35528,7 @@
         <v>-1349.77943906055</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35197,7 +35561,7 @@
         <v>-1410.72303906055</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35230,7 +35594,7 @@
         <v>-1469.35883906055</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35263,7 +35627,7 @@
         <v>-1462.14373906055</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35296,7 +35660,7 @@
         <v>-1468.01773906055</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35329,7 +35693,7 @@
         <v>-1456.080681238272</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35362,7 +35726,7 @@
         <v>-1456.080681238272</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35395,7 +35759,7 @@
         <v>-1276.552581238272</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35428,7 +35792,7 @@
         <v>-1276.552581238272</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35461,7 +35825,7 @@
         <v>-1235.174781238272</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35494,7 +35858,7 @@
         <v>-1269.855081238272</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35527,7 +35891,7 @@
         <v>-682.3392729279549</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35560,7 +35924,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35593,7 +35957,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35626,7 +35990,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35659,7 +36023,7 @@
         <v>-702.7036729279549</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35692,7 +36056,7 @@
         <v>-754.8548729279549</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35725,7 +36089,7 @@
         <v>-786.516072927955</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35758,7 +36122,7 @@
         <v>-802.905072927955</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35791,7 +36155,7 @@
         <v>-886.8264729279549</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35824,7 +36188,7 @@
         <v>-1099.509672927955</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35857,7 +36221,7 @@
         <v>-1093.357572927955</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35890,7 +36254,7 @@
         <v>-1093.357572927955</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35923,7 +36287,7 @@
         <v>-1092.730672927955</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35956,7 +36320,7 @@
         <v>-1119.076172927955</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35989,7 +36353,7 @@
         <v>-1129.583572927955</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36088,7 +36452,7 @@
         <v>-1361.955672927955</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36121,7 +36485,7 @@
         <v>-1386.457672927955</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36154,7 +36518,7 @@
         <v>-1447.784972927955</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36187,7 +36551,7 @@
         <v>-1447.784972927955</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36220,7 +36584,7 @@
         <v>-1444.210572927955</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36253,7 +36617,7 @@
         <v>-1444.210572927955</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36286,7 +36650,7 @@
         <v>-1401.191472927955</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36319,7 +36683,7 @@
         <v>-1178.141172927955</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36352,7 +36716,7 @@
         <v>-1139.893644033482</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36891,6 +37255,6 @@
       <c r="M1069" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETH.xlsx
+++ b/BackTest/2020-01-11 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1125.056399321674</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1051.052999321674</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1046.760999321674</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1065.968599321674</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1001.878999321674</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-954.8379993216738</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-987.6240993216738</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-936.4045993216738</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-934.4170993216737</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1275.345199321674</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1235.309199321674</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1226.872999321674</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -24376,14 +24376,10 @@
         <v>-3788.14289447005</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J727" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
@@ -24413,544 +24409,452 @@
         <v>-3788.14289447005</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
         <v>155300</v>
       </c>
-      <c r="J728" t="n">
+      <c r="C729" t="n">
+        <v>155200</v>
+      </c>
+      <c r="D729" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E729" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F729" t="n">
+        <v>17.00635003219575</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-3805.149244502246</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>155200</v>
+      </c>
+      <c r="C730" t="n">
+        <v>155200</v>
+      </c>
+      <c r="D730" t="n">
+        <v>155200</v>
+      </c>
+      <c r="E730" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-3805.149244502246</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
         <v>155100</v>
       </c>
-      <c r="K728" t="inlineStr">
+      <c r="C731" t="n">
+        <v>155100</v>
+      </c>
+      <c r="D731" t="n">
+        <v>155100</v>
+      </c>
+      <c r="E731" t="n">
+        <v>155100</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1.8648</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-3807.014044502246</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C732" t="n">
+        <v>155100</v>
+      </c>
+      <c r="D732" t="n">
+        <v>155100</v>
+      </c>
+      <c r="E732" t="n">
+        <v>155000</v>
+      </c>
+      <c r="F732" t="n">
+        <v>8.1166</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-3807.014044502246</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C733" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D733" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E733" t="n">
+        <v>155000</v>
+      </c>
+      <c r="F733" t="n">
+        <v>9.401999999999999</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-3816.416044502246</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>154900</v>
+      </c>
+      <c r="C734" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D734" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E734" t="n">
+        <v>154900</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3.8363</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-3816.416044502246</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C735" t="n">
+        <v>154900</v>
+      </c>
+      <c r="D735" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E735" t="n">
+        <v>154900</v>
+      </c>
+      <c r="F735" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-3826.001044502246</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>154900</v>
+      </c>
+      <c r="C736" t="n">
+        <v>154900</v>
+      </c>
+      <c r="D736" t="n">
+        <v>154900</v>
+      </c>
+      <c r="E736" t="n">
+        <v>154700</v>
+      </c>
+      <c r="F736" t="n">
+        <v>99.7392</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-3826.001044502246</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>154900</v>
+      </c>
+      <c r="C737" t="n">
+        <v>154900</v>
+      </c>
+      <c r="D737" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E737" t="n">
+        <v>154800</v>
+      </c>
+      <c r="F737" t="n">
+        <v>310.5257</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-3826.001044502246</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>154900</v>
+      </c>
+      <c r="C738" t="n">
+        <v>154600</v>
+      </c>
+      <c r="D738" t="n">
+        <v>154900</v>
+      </c>
+      <c r="E738" t="n">
+        <v>154600</v>
+      </c>
+      <c r="F738" t="n">
+        <v>99.00360000000001</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-3925.004644502246</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>154500</v>
+      </c>
+      <c r="C739" t="n">
+        <v>154500</v>
+      </c>
+      <c r="D739" t="n">
+        <v>154500</v>
+      </c>
+      <c r="E739" t="n">
+        <v>154500</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-3925.464544502246</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="C740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="D740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="E740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.7256</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-3925.464544502246</v>
+      </c>
+      <c r="H740" t="n">
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="J740" t="n">
+        <v>154500</v>
+      </c>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>154500</v>
+      </c>
+      <c r="C741" t="n">
+        <v>154800</v>
+      </c>
+      <c r="D741" t="n">
+        <v>154800</v>
+      </c>
+      <c r="E741" t="n">
+        <v>154500</v>
+      </c>
+      <c r="F741" t="n">
+        <v>32.5405</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-3892.924044502246</v>
+      </c>
+      <c r="H741" t="n">
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>154500</v>
+      </c>
+      <c r="J741" t="n">
+        <v>154500</v>
+      </c>
+      <c r="K741" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C729" t="n">
-        <v>155200</v>
-      </c>
-      <c r="D729" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E729" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F729" t="n">
-        <v>17.00635003219575</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-3805.149244502246</v>
-      </c>
-      <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J729" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>155200</v>
-      </c>
-      <c r="C730" t="n">
-        <v>155200</v>
-      </c>
-      <c r="D730" t="n">
-        <v>155200</v>
-      </c>
-      <c r="E730" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F730" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-3805.149244502246</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>155200</v>
-      </c>
-      <c r="J730" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>155100</v>
-      </c>
-      <c r="C731" t="n">
-        <v>155100</v>
-      </c>
-      <c r="D731" t="n">
-        <v>155100</v>
-      </c>
-      <c r="E731" t="n">
-        <v>155100</v>
-      </c>
-      <c r="F731" t="n">
-        <v>1.8648</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-3807.014044502246</v>
-      </c>
-      <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>155000</v>
-      </c>
-      <c r="C732" t="n">
-        <v>155100</v>
-      </c>
-      <c r="D732" t="n">
-        <v>155100</v>
-      </c>
-      <c r="E732" t="n">
-        <v>155000</v>
-      </c>
-      <c r="F732" t="n">
-        <v>8.1166</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-3807.014044502246</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>155000</v>
-      </c>
-      <c r="C733" t="n">
-        <v>155000</v>
-      </c>
-      <c r="D733" t="n">
-        <v>155000</v>
-      </c>
-      <c r="E733" t="n">
-        <v>155000</v>
-      </c>
-      <c r="F733" t="n">
-        <v>9.401999999999999</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-3816.416044502246</v>
-      </c>
-      <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J733" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>154900</v>
-      </c>
-      <c r="C734" t="n">
-        <v>155000</v>
-      </c>
-      <c r="D734" t="n">
-        <v>155000</v>
-      </c>
-      <c r="E734" t="n">
-        <v>154900</v>
-      </c>
-      <c r="F734" t="n">
-        <v>3.8363</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-3816.416044502246</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>155000</v>
-      </c>
-      <c r="C735" t="n">
-        <v>154900</v>
-      </c>
-      <c r="D735" t="n">
-        <v>155000</v>
-      </c>
-      <c r="E735" t="n">
-        <v>154900</v>
-      </c>
-      <c r="F735" t="n">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-3826.001044502246</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>155000</v>
-      </c>
-      <c r="J735" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>154900</v>
-      </c>
-      <c r="C736" t="n">
-        <v>154900</v>
-      </c>
-      <c r="D736" t="n">
-        <v>154900</v>
-      </c>
-      <c r="E736" t="n">
-        <v>154700</v>
-      </c>
-      <c r="F736" t="n">
-        <v>99.7392</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-3826.001044502246</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>154900</v>
-      </c>
-      <c r="J736" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>154900</v>
-      </c>
-      <c r="C737" t="n">
-        <v>154900</v>
-      </c>
-      <c r="D737" t="n">
-        <v>155000</v>
-      </c>
-      <c r="E737" t="n">
-        <v>154800</v>
-      </c>
-      <c r="F737" t="n">
-        <v>310.5257</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-3826.001044502246</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>154900</v>
-      </c>
-      <c r="J737" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>154900</v>
-      </c>
-      <c r="C738" t="n">
-        <v>154600</v>
-      </c>
-      <c r="D738" t="n">
-        <v>154900</v>
-      </c>
-      <c r="E738" t="n">
-        <v>154600</v>
-      </c>
-      <c r="F738" t="n">
-        <v>99.00360000000001</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-3925.004644502246</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>154500</v>
-      </c>
-      <c r="C739" t="n">
-        <v>154500</v>
-      </c>
-      <c r="D739" t="n">
-        <v>154500</v>
-      </c>
-      <c r="E739" t="n">
-        <v>154500</v>
-      </c>
-      <c r="F739" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-3925.464544502246</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>154600</v>
-      </c>
-      <c r="J739" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="C740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="D740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="E740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="F740" t="n">
-        <v>1.7256</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-3925.464544502246</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="J740" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>154500</v>
-      </c>
-      <c r="C741" t="n">
-        <v>154800</v>
-      </c>
-      <c r="D741" t="n">
-        <v>154800</v>
-      </c>
-      <c r="E741" t="n">
-        <v>154500</v>
-      </c>
-      <c r="F741" t="n">
-        <v>32.5405</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-3892.924044502246</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>154500</v>
-      </c>
-      <c r="J741" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24985,7 +24889,7 @@
         <v>154800</v>
       </c>
       <c r="J742" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25026,7 +24930,7 @@
         <v>154800</v>
       </c>
       <c r="J743" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25067,7 +24971,7 @@
         <v>154800</v>
       </c>
       <c r="J744" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25108,7 +25012,7 @@
         <v>154600</v>
       </c>
       <c r="J745" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25149,7 +25053,7 @@
         <v>154800</v>
       </c>
       <c r="J746" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25190,7 +25094,7 @@
         <v>154900</v>
       </c>
       <c r="J747" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25231,7 +25135,7 @@
         <v>154600</v>
       </c>
       <c r="J748" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -25272,7 +25176,7 @@
         <v>154600</v>
       </c>
       <c r="J749" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -25313,7 +25217,7 @@
         <v>154800</v>
       </c>
       <c r="J750" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -25348,13 +25252,11 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>155200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -25395,7 +25297,7 @@
         <v>154700</v>
       </c>
       <c r="J752" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -25436,7 +25338,7 @@
         <v>154700</v>
       </c>
       <c r="J753" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -25471,13 +25373,11 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -25512,13 +25412,11 @@
         <v>-3666.122630455855</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -25559,7 +25457,7 @@
         <v>154500</v>
       </c>
       <c r="J756" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -25600,7 +25498,7 @@
         <v>154500</v>
       </c>
       <c r="J757" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -25635,13 +25533,11 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -25682,7 +25578,7 @@
         <v>154500</v>
       </c>
       <c r="J759" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -25723,7 +25619,7 @@
         <v>154500</v>
       </c>
       <c r="J760" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -25764,7 +25660,7 @@
         <v>154500</v>
       </c>
       <c r="J761" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -25799,13 +25695,11 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -25840,13 +25734,11 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -25881,13 +25773,11 @@
         <v>-3655.683533652612</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -25922,13 +25812,11 @@
         <v>-3689.427533652613</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -25963,13 +25851,11 @@
         <v>-3608.102133652612</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>154700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26004,13 +25890,11 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>154800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26045,13 +25929,11 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26086,13 +25968,11 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26127,13 +26007,11 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26168,13 +26046,11 @@
         <v>-3615.483433652612</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26209,13 +26085,11 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>154800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26250,13 +26124,11 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26291,13 +26163,11 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26332,13 +26202,11 @@
         <v>-3575.457833652612</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>154900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26377,7 +26245,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26416,7 +26284,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26455,7 +26323,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26490,13 +26358,11 @@
         <v>-3607.337433652612</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>154800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26535,7 +26401,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26570,13 +26436,11 @@
         <v>-3600.587133652612</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>155000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26615,7 +26479,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26654,7 +26518,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26693,7 +26557,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26732,7 +26596,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26771,7 +26635,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26806,13 +26670,11 @@
         <v>-3591.431833652613</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>155000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -26851,7 +26713,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -26890,7 +26752,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -26929,7 +26791,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -26968,7 +26830,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27007,7 +26869,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27046,7 +26908,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27085,7 +26947,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27124,7 +26986,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27163,7 +27025,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27202,7 +27064,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27241,7 +27103,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27280,7 +27142,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27319,7 +27181,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27358,7 +27220,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27397,7 +27259,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27436,7 +27298,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27475,7 +27337,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27510,13 +27372,11 @@
         <v>-3589.955133652612</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>155200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27555,7 +27415,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27594,7 +27454,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27633,7 +27493,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27672,7 +27532,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27707,13 +27567,11 @@
         <v>-3624.640633652612</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>155300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27748,13 +27606,11 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>155200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27789,13 +27645,11 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>155500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27834,7 +27688,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27873,7 +27727,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -27908,13 +27762,11 @@
         <v>-3624.284471916278</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>155500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -27953,7 +27805,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -27988,13 +27840,11 @@
         <v>-3677.279071916278</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28029,13 +27879,11 @@
         <v>-3677.279071916278</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28074,7 +27922,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28113,7 +27961,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28148,13 +27996,11 @@
         <v>-3690.151171916278</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>155500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28193,7 +28039,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28228,13 +28074,11 @@
         <v>-3685.388276993399</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>155300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28269,13 +28113,11 @@
         <v>-3694.374476993399</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>155600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28310,13 +28152,11 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>155300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28351,13 +28191,11 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28392,13 +28230,11 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28433,13 +28269,11 @@
         <v>-3677.260276993399</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28474,13 +28308,11 @@
         <v>-2360.845588758105</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>155400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28519,7 +28351,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28558,7 +28390,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28597,7 +28429,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28636,7 +28468,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28675,7 +28507,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28714,7 +28546,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28753,7 +28585,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28788,13 +28620,11 @@
         <v>-2645.670988758105</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>155200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28829,13 +28659,11 @@
         <v>-2715.770588758105</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28874,7 +28702,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28909,13 +28737,11 @@
         <v>-2682.075088758105</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>155000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28950,13 +28776,11 @@
         <v>-2476.498788758105</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>155300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28995,7 +28819,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -29034,7 +28858,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -29073,7 +28897,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29112,7 +28936,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29151,7 +28975,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29190,7 +29014,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29229,7 +29053,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29268,7 +29092,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29307,7 +29131,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29346,7 +29170,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29385,7 +29209,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29424,7 +29248,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29463,7 +29287,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29502,7 +29326,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29541,7 +29365,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29580,7 +29404,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29619,7 +29443,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29658,7 +29482,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29697,7 +29521,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29736,7 +29560,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29775,7 +29599,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29814,7 +29638,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29853,7 +29677,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29892,7 +29716,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29931,7 +29755,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29970,7 +29794,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -30009,7 +29833,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -30048,7 +29872,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30087,7 +29911,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -30126,7 +29950,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -30165,7 +29989,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -30204,7 +30028,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30243,7 +30067,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -30282,7 +30106,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -30321,7 +30145,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -30360,7 +30184,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -30399,7 +30223,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -30438,7 +30262,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -30477,7 +30301,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -30516,7 +30340,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30555,7 +30379,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30594,7 +30418,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30633,7 +30457,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30672,7 +30496,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30711,7 +30535,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30750,7 +30574,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30789,7 +30613,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30828,7 +30652,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30867,7 +30691,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30906,7 +30730,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30945,7 +30769,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30984,7 +30808,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -31023,7 +30847,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -31062,7 +30886,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -31101,7 +30925,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -31140,7 +30964,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -31179,7 +31003,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -31218,7 +31042,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31257,7 +31081,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31292,19 +31116,19 @@
         <v>-1227.668158104841</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>155100</v>
+        <v>154500</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L901" t="n">
-        <v>1</v>
+        <v>1.022831715210356</v>
       </c>
       <c r="M901" t="inlineStr"/>
     </row>
@@ -31334,14 +31158,8 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31373,14 +31191,8 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31412,14 +31224,8 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31451,14 +31257,8 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31490,14 +31290,8 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31529,14 +31323,8 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31568,14 +31356,8 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31607,14 +31389,8 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31646,14 +31422,8 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31685,14 +31455,8 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31724,14 +31488,8 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31763,14 +31521,8 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31802,14 +31554,8 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31838,17 +31584,11 @@
         <v>-1082.785259491104</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31880,14 +31620,8 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31919,14 +31653,8 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31958,14 +31686,8 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31997,14 +31719,8 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32036,14 +31752,8 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32075,14 +31785,8 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32114,14 +31818,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32153,14 +31851,8 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32192,14 +31884,8 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32231,14 +31917,8 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32270,14 +31950,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32309,14 +31983,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32348,14 +32016,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32387,14 +32049,8 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32426,14 +32082,8 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32465,14 +32115,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32504,14 +32148,8 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32543,14 +32181,8 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32582,14 +32214,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32621,14 +32247,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32660,14 +32280,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32699,14 +32313,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32738,14 +32346,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32777,14 +32379,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32816,14 +32412,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32855,14 +32445,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32894,14 +32478,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32933,14 +32511,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32972,14 +32544,8 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33011,14 +32577,8 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33050,14 +32610,8 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33089,14 +32643,8 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33128,14 +32676,8 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33167,14 +32709,8 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33206,14 +32742,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33245,14 +32775,8 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33284,14 +32808,8 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33323,14 +32841,8 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33362,14 +32874,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33401,14 +32907,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33440,14 +32940,8 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33479,14 +32973,8 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33518,14 +33006,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33557,14 +33039,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33596,14 +33072,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33635,14 +33105,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33674,14 +33138,8 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33713,14 +33171,8 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33752,14 +33204,8 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33791,14 +33237,8 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33830,14 +33270,8 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33869,14 +33303,8 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33905,19 +33333,13 @@
         <v>-918.7786761789226</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
-        <v>1.021434558349452</v>
+        <v>1</v>
       </c>
       <c r="M968" t="inlineStr"/>
     </row>
@@ -33977,7 +33399,7 @@
         <v>-794.7440761789227</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34010,7 +33432,7 @@
         <v>-877.424009512256</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34043,7 +33465,7 @@
         <v>-668.7416089281926</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34076,7 +33498,7 @@
         <v>100.0678739087367</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34109,7 +33531,7 @@
         <v>218.9855739087367</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34175,7 +33597,7 @@
         <v>-177.0914243478013</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34274,7 +33696,7 @@
         <v>-1088.567624347801</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34307,7 +33729,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34340,7 +33762,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34373,7 +33795,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34406,7 +33828,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34439,7 +33861,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34472,7 +33894,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34505,7 +33927,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34538,7 +33960,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34571,7 +33993,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34604,7 +34026,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34637,7 +34059,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34670,7 +34092,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34703,7 +34125,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34736,7 +34158,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34769,7 +34191,7 @@
         <v>-1319.216967739322</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34802,7 +34224,7 @@
         <v>-1352.295567739322</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34835,7 +34257,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34868,7 +34290,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34901,7 +34323,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34934,7 +34356,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34967,7 +34389,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35000,7 +34422,7 @@
         <v>-1583.489367739322</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35462,7 +34884,7 @@
         <v>-1420.80323906055</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35495,7 +34917,7 @@
         <v>-1420.80323906055</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35528,7 +34950,7 @@
         <v>-1349.77943906055</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35561,7 +34983,7 @@
         <v>-1410.72303906055</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35594,7 +35016,7 @@
         <v>-1469.35883906055</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35627,7 +35049,7 @@
         <v>-1462.14373906055</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35660,7 +35082,7 @@
         <v>-1468.01773906055</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35693,7 +35115,7 @@
         <v>-1456.080681238272</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35726,7 +35148,7 @@
         <v>-1456.080681238272</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35759,7 +35181,7 @@
         <v>-1276.552581238272</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35792,7 +35214,7 @@
         <v>-1276.552581238272</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35825,7 +35247,7 @@
         <v>-1235.174781238272</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35858,7 +35280,7 @@
         <v>-1269.855081238272</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35891,7 +35313,7 @@
         <v>-682.3392729279549</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35924,7 +35346,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35957,7 +35379,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35990,7 +35412,7 @@
         <v>-696.6535729279549</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36023,7 +35445,7 @@
         <v>-702.7036729279549</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36056,7 +35478,7 @@
         <v>-754.8548729279549</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36089,7 +35511,7 @@
         <v>-786.516072927955</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36122,7 +35544,7 @@
         <v>-802.905072927955</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36155,7 +35577,7 @@
         <v>-886.8264729279549</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36188,7 +35610,7 @@
         <v>-1099.509672927955</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36221,7 +35643,7 @@
         <v>-1093.357572927955</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36254,7 +35676,7 @@
         <v>-1093.357572927955</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36287,7 +35709,7 @@
         <v>-1092.730672927955</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36320,7 +35742,7 @@
         <v>-1119.076172927955</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36353,7 +35775,7 @@
         <v>-1129.583572927955</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36452,7 +35874,7 @@
         <v>-1361.955672927955</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36485,7 +35907,7 @@
         <v>-1386.457672927955</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36518,7 +35940,7 @@
         <v>-1447.784972927955</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36551,7 +35973,7 @@
         <v>-1447.784972927955</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36584,7 +36006,7 @@
         <v>-1444.210572927955</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36617,7 +36039,7 @@
         <v>-1444.210572927955</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36650,7 +36072,7 @@
         <v>-1401.191472927955</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36683,7 +36105,7 @@
         <v>-1178.141172927955</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37255,6 +36677,6 @@
       <c r="M1069" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETH.xlsx
+++ b/BackTest/2020-01-11 BackTest ETH.xlsx
@@ -4906,7 +4906,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1138.056399321674</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1125.056399321674</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1051.052999321674</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1046.760999321674</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1065.968599321674</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1001.878999321674</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-954.8379993216738</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-987.6240993216738</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-991.6240993216738</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-936.4045993216738</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-941.4470993216738</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-939.2266993216738</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-934.4170993216737</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1021.212599321674</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1033.146999321674</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1275.345199321674</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1235.309199321674</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1226.872999321674</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -24805,14 +24805,10 @@
         <v>-3925.464544502246</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>154500</v>
-      </c>
-      <c r="J740" t="n">
-        <v>154500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
@@ -24847,9 +24843,7 @@
       <c r="I741" t="n">
         <v>154500</v>
       </c>
-      <c r="J741" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -24888,9 +24882,7 @@
       <c r="I742" t="n">
         <v>154800</v>
       </c>
-      <c r="J742" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24929,9 +24921,7 @@
       <c r="I743" t="n">
         <v>154800</v>
       </c>
-      <c r="J743" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24970,9 +24960,7 @@
       <c r="I744" t="n">
         <v>154800</v>
       </c>
-      <c r="J744" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25011,9 +24999,7 @@
       <c r="I745" t="n">
         <v>154600</v>
       </c>
-      <c r="J745" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25052,9 +25038,7 @@
       <c r="I746" t="n">
         <v>154800</v>
       </c>
-      <c r="J746" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25093,9 +25077,7 @@
       <c r="I747" t="n">
         <v>154900</v>
       </c>
-      <c r="J747" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25134,9 +25116,7 @@
       <c r="I748" t="n">
         <v>154600</v>
       </c>
-      <c r="J748" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25175,9 +25155,7 @@
       <c r="I749" t="n">
         <v>154600</v>
       </c>
-      <c r="J749" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,9 +25194,7 @@
       <c r="I750" t="n">
         <v>154800</v>
       </c>
-      <c r="J750" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25252,12 +25228,12 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25296,9 +25272,7 @@
       <c r="I752" t="n">
         <v>154700</v>
       </c>
-      <c r="J752" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25337,9 +25311,7 @@
       <c r="I753" t="n">
         <v>154700</v>
       </c>
-      <c r="J753" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25373,12 +25345,12 @@
         <v>-3526.548630455854</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25412,12 +25384,12 @@
         <v>-3666.122630455855</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25456,9 +25428,7 @@
       <c r="I756" t="n">
         <v>154500</v>
       </c>
-      <c r="J756" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25497,9 +25467,7 @@
       <c r="I757" t="n">
         <v>154500</v>
       </c>
-      <c r="J757" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25533,12 +25501,12 @@
         <v>-3678.709830455854</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25577,9 +25545,7 @@
       <c r="I759" t="n">
         <v>154500</v>
       </c>
-      <c r="J759" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25618,9 +25584,7 @@
       <c r="I760" t="n">
         <v>154500</v>
       </c>
-      <c r="J760" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25659,9 +25623,7 @@
       <c r="I761" t="n">
         <v>154500</v>
       </c>
-      <c r="J761" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25695,12 +25657,12 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25734,12 +25696,12 @@
         <v>-3656.261933652612</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25773,12 +25735,12 @@
         <v>-3655.683533652612</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25812,12 +25774,12 @@
         <v>-3689.427533652613</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>154900</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25851,12 +25813,12 @@
         <v>-3608.102133652612</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>154700</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25890,12 +25852,12 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25929,12 +25891,12 @@
         <v>-3606.485533652613</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>154500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>154900</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25971,9 +25933,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26010,9 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26049,9 +26007,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26088,9 +26044,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26127,9 +26081,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26166,9 +26118,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26205,9 +26155,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26244,9 +26192,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26283,9 +26229,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26322,9 +26266,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26361,9 +26303,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26400,9 +26340,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26439,9 +26377,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26478,9 +26414,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26517,9 +26451,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26556,9 +26488,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26595,9 +26525,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26634,9 +26562,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26673,9 +26599,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26712,9 +26636,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26751,9 +26673,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26790,9 +26710,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26829,9 +26747,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26868,9 +26784,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26907,9 +26821,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26946,9 +26858,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26985,9 +26895,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27024,9 +26932,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27063,9 +26969,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27102,9 +27006,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27141,9 +27043,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27180,9 +27080,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27219,9 +27117,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27258,9 +27154,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27297,9 +27191,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27336,9 +27228,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27375,9 +27265,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27414,9 +27302,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27453,9 +27339,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27492,9 +27376,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27531,9 +27413,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27570,9 +27450,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27609,9 +27487,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27648,9 +27524,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27687,9 +27561,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27726,9 +27598,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27765,9 +27635,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27804,9 +27672,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27843,9 +27709,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27882,9 +27746,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27921,9 +27783,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27960,9 +27820,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27999,9 +27857,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28038,9 +27894,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28077,9 +27931,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28116,9 +27968,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28155,9 +28005,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28194,9 +28042,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28233,9 +28079,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28272,9 +28116,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28311,9 +28153,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28350,9 +28190,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28389,9 +28227,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28428,9 +28264,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28467,9 +28301,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28506,9 +28338,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28545,9 +28375,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28584,9 +28412,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28623,9 +28449,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28662,9 +28486,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28701,9 +28523,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28740,9 +28560,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28779,9 +28597,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28818,9 +28634,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28857,9 +28671,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28896,9 +28708,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28935,9 +28745,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28974,9 +28782,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29013,9 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29052,9 +28856,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29091,9 +28893,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29130,9 +28930,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29169,9 +28967,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29208,9 +29004,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29247,9 +29041,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29286,9 +29078,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29325,9 +29115,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29364,9 +29152,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29403,9 +29189,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29442,9 +29226,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29481,9 +29263,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29520,9 +29300,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29559,9 +29337,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29598,9 +29374,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29637,9 +29411,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29676,9 +29448,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29715,9 +29485,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29754,9 +29522,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29793,9 +29559,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29832,9 +29596,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29871,9 +29633,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29910,9 +29670,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29949,9 +29707,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29988,9 +29744,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30027,9 +29781,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30066,9 +29818,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30105,9 +29855,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30144,9 +29892,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30183,9 +29929,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30222,9 +29966,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30261,9 +30003,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30300,9 +30040,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30339,9 +30077,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30378,9 +30114,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30417,9 +30151,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30456,9 +30188,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30495,9 +30225,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30534,9 +30262,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30573,9 +30299,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30612,9 +30336,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30651,9 +30373,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30690,9 +30410,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30729,9 +30447,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30768,9 +30484,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30807,9 +30521,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30846,9 +30558,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30885,9 +30595,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30924,9 +30632,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30963,9 +30669,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31002,9 +30706,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31041,9 +30743,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31080,9 +30780,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>154500</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31116,2429 +30814,2717 @@
         <v>-1227.668158104841</v>
       </c>
       <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C902" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D902" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E902" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F902" t="n">
+        <v>50.5457</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-1227.668158104841</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C903" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D903" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E903" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F903" t="n">
+        <v>285.3589</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-942.3092581048409</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C904" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D904" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E904" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F904" t="n">
+        <v>5.0064</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-947.3156581048408</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C905" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D905" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E905" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F905" t="n">
+        <v>81.1965</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-947.3156581048408</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C906" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D906" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E906" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F906" t="n">
+        <v>131.1672</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-816.1484581048409</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C907" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D907" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E907" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F907" t="n">
+        <v>8.21070138626339</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-824.3591594911043</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C908" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D908" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E908" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F908" t="n">
+        <v>56.1097</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-768.2494594911043</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C909" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D909" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E909" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F909" t="n">
+        <v>65.24048526448362</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-768.2494594911043</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C910" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D910" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E910" t="n">
+        <v>158400</v>
+      </c>
+      <c r="F910" t="n">
+        <v>38.4819</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-806.7313594911043</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>158400</v>
+      </c>
+      <c r="C911" t="n">
+        <v>158300</v>
+      </c>
+      <c r="D911" t="n">
+        <v>158400</v>
+      </c>
+      <c r="E911" t="n">
+        <v>158300</v>
+      </c>
+      <c r="F911" t="n">
+        <v>59.6492</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-866.3805594911042</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>158200</v>
+      </c>
+      <c r="C912" t="n">
+        <v>158200</v>
+      </c>
+      <c r="D912" t="n">
+        <v>158200</v>
+      </c>
+      <c r="E912" t="n">
+        <v>158100</v>
+      </c>
+      <c r="F912" t="n">
+        <v>24.4575</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-890.8380594911042</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>158200</v>
+      </c>
+      <c r="C913" t="n">
+        <v>158300</v>
+      </c>
+      <c r="D913" t="n">
+        <v>158300</v>
+      </c>
+      <c r="E913" t="n">
+        <v>158200</v>
+      </c>
+      <c r="F913" t="n">
+        <v>38.1025</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-852.7355594911043</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>158200</v>
+      </c>
+      <c r="C914" t="n">
+        <v>158100</v>
+      </c>
+      <c r="D914" t="n">
+        <v>158200</v>
+      </c>
+      <c r="E914" t="n">
+        <v>158100</v>
+      </c>
+      <c r="F914" t="n">
+        <v>64.7621</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-917.4976594911043</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>158000</v>
+      </c>
+      <c r="C915" t="n">
+        <v>157800</v>
+      </c>
+      <c r="D915" t="n">
+        <v>158000</v>
+      </c>
+      <c r="E915" t="n">
+        <v>157800</v>
+      </c>
+      <c r="F915" t="n">
+        <v>165.2876</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-1082.785259491104</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>158000</v>
+      </c>
+      <c r="C916" t="n">
+        <v>158000</v>
+      </c>
+      <c r="D916" t="n">
+        <v>158000</v>
+      </c>
+      <c r="E916" t="n">
+        <v>158000</v>
+      </c>
+      <c r="F916" t="n">
+        <v>3.4638</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-1079.321459491104</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>157900</v>
+      </c>
+      <c r="C917" t="n">
+        <v>157900</v>
+      </c>
+      <c r="D917" t="n">
+        <v>157900</v>
+      </c>
+      <c r="E917" t="n">
+        <v>157900</v>
+      </c>
+      <c r="F917" t="n">
+        <v>82.39611146295124</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-1161.717570954055</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>157700</v>
+      </c>
+      <c r="C918" t="n">
+        <v>157900</v>
+      </c>
+      <c r="D918" t="n">
+        <v>157900</v>
+      </c>
+      <c r="E918" t="n">
+        <v>157700</v>
+      </c>
+      <c r="F918" t="n">
+        <v>44.5022</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-1161.717570954055</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>158000</v>
+      </c>
+      <c r="C919" t="n">
+        <v>158200</v>
+      </c>
+      <c r="D919" t="n">
+        <v>158300</v>
+      </c>
+      <c r="E919" t="n">
+        <v>157800</v>
+      </c>
+      <c r="F919" t="n">
+        <v>64.81270000000001</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-1096.904870954055</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>158300</v>
+      </c>
+      <c r="C920" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D920" t="n">
+        <v>158400</v>
+      </c>
+      <c r="E920" t="n">
+        <v>158300</v>
+      </c>
+      <c r="F920" t="n">
+        <v>56.7106</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-1040.194270954055</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>158400</v>
+      </c>
+      <c r="C921" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D921" t="n">
+        <v>158400</v>
+      </c>
+      <c r="E921" t="n">
+        <v>158400</v>
+      </c>
+      <c r="F921" t="n">
+        <v>3.5354</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-1040.194270954055</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C922" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D922" t="n">
+        <v>158500</v>
+      </c>
+      <c r="E922" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F922" t="n">
+        <v>20.5648</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-1019.629470954055</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C923" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D923" t="n">
+        <v>158500</v>
+      </c>
+      <c r="E923" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F923" t="n">
+        <v>15.2751</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-1019.629470954055</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>158300</v>
+      </c>
+      <c r="C924" t="n">
+        <v>158300</v>
+      </c>
+      <c r="D924" t="n">
+        <v>158300</v>
+      </c>
+      <c r="E924" t="n">
+        <v>158300</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-1019.973970954055</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>158300</v>
+      </c>
+      <c r="C925" t="n">
+        <v>158300</v>
+      </c>
+      <c r="D925" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E925" t="n">
+        <v>158300</v>
+      </c>
+      <c r="F925" t="n">
+        <v>92.782</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-1019.973970954055</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>158400</v>
+      </c>
+      <c r="C926" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D926" t="n">
+        <v>158400</v>
+      </c>
+      <c r="E926" t="n">
+        <v>158400</v>
+      </c>
+      <c r="F926" t="n">
+        <v>5</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-1014.973970954055</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C927" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D927" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E927" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F927" t="n">
+        <v>93.7972</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-921.1767709540554</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C928" t="n">
+        <v>159100</v>
+      </c>
+      <c r="D928" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E928" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F928" t="n">
+        <v>186.5489077938404</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-734.627863160215</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C929" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D929" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E929" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F929" t="n">
+        <v>2.8165</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-737.4443631602151</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C930" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D930" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E930" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F930" t="n">
+        <v>12.1362</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-749.5805631602151</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C931" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D931" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E931" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F931" t="n">
+        <v>2.8866</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-746.693963160215</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L931" t="n">
+        <v>1</v>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C932" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D932" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E932" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F932" t="n">
+        <v>5.6471</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-746.693963160215</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L932" t="n">
+        <v>1</v>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C933" t="n">
+        <v>159400</v>
+      </c>
+      <c r="D933" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E933" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F933" t="n">
+        <v>268.7608492471769</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-477.9331139130381</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L933" t="n">
+        <v>1</v>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C934" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D934" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E934" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F934" t="n">
+        <v>198.6871</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-676.6202139130381</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L934" t="n">
+        <v>1</v>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C935" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D935" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E935" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F935" t="n">
+        <v>168.7357</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-845.3559139130382</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L935" t="n">
+        <v>1</v>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C936" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D936" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E936" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F936" t="n">
+        <v>53.269</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-898.6249139130382</v>
+      </c>
+      <c r="H936" t="n">
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L936" t="n">
+        <v>1</v>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C937" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D937" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E937" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F937" t="n">
+        <v>31.4074</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-867.2175139130381</v>
+      </c>
+      <c r="H937" t="n">
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L937" t="n">
+        <v>1</v>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C938" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D938" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E938" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F938" t="n">
+        <v>220.6648</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-1087.882313913038</v>
+      </c>
+      <c r="H938" t="n">
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L938" t="n">
+        <v>1</v>
+      </c>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C939" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D939" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E939" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F939" t="n">
+        <v>39.3616</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-1087.882313913038</v>
+      </c>
+      <c r="H939" t="n">
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L939" t="n">
+        <v>1</v>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C940" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D940" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E940" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F940" t="n">
+        <v>110.9065</v>
+      </c>
+      <c r="G940" t="n">
+        <v>-976.9758139130381</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C941" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D941" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E941" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F941" t="n">
+        <v>144.0631304266531</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-832.912683486385</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C942" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D942" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E942" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F942" t="n">
+        <v>6.5459</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-839.458583486385</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C943" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D943" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E943" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F943" t="n">
+        <v>17.0648</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-822.393783486385</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C944" t="n">
+        <v>159100</v>
+      </c>
+      <c r="D944" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E944" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F944" t="n">
+        <v>75.3540648241206</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-747.0397186622645</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L944" t="n">
+        <v>1</v>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="n">
+        <v>159200</v>
+      </c>
+      <c r="C945" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D945" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E945" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F945" t="n">
+        <v>90.1383</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-837.1780186622644</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L945" t="n">
+        <v>1</v>
+      </c>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C946" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D946" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E946" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F946" t="n">
+        <v>6.9845</v>
+      </c>
+      <c r="G946" t="n">
+        <v>-830.1935186622644</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L946" t="n">
+        <v>1</v>
+      </c>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C947" t="n">
+        <v>159100</v>
+      </c>
+      <c r="D947" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E947" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F947" t="n">
+        <v>10.5787</v>
+      </c>
+      <c r="G947" t="n">
+        <v>-819.6148186622644</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L947" t="n">
+        <v>1</v>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C948" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D948" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E948" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F948" t="n">
+        <v>28.2968</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-847.9116186622643</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L948" t="n">
+        <v>1</v>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E949" t="n">
+        <v>159000</v>
+      </c>
+      <c r="F949" t="n">
+        <v>11.0474</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-847.9116186622643</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L949" t="n">
+        <v>1</v>
+      </c>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C950" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D950" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E950" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F950" t="n">
+        <v>110.0832</v>
+      </c>
+      <c r="G950" t="n">
+        <v>-957.9948186622644</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L950" t="n">
+        <v>1</v>
+      </c>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C951" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D951" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E951" t="n">
+        <v>158700</v>
+      </c>
+      <c r="F951" t="n">
+        <v>73.6096</v>
+      </c>
+      <c r="G951" t="n">
+        <v>-957.9948186622644</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L951" t="n">
+        <v>1</v>
+      </c>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C952" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D952" t="n">
+        <v>158800</v>
+      </c>
+      <c r="E952" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F952" t="n">
+        <v>64.2754</v>
+      </c>
+      <c r="G952" t="n">
+        <v>-1022.270218662264</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L952" t="n">
+        <v>1</v>
+      </c>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C953" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D953" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E953" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F953" t="n">
+        <v>8.4335</v>
+      </c>
+      <c r="G953" t="n">
+        <v>-1030.703718662264</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L953" t="n">
+        <v>1</v>
+      </c>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="n">
+        <v>158500</v>
+      </c>
+      <c r="C954" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D954" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E954" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F954" t="n">
+        <v>26.4153</v>
+      </c>
+      <c r="G954" t="n">
+        <v>-1004.288418662264</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L954" t="n">
+        <v>1</v>
+      </c>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="D955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="E955" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F955" t="n">
+        <v>5.8279</v>
+      </c>
+      <c r="G955" t="n">
+        <v>-1004.288418662264</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L955" t="n">
+        <v>1</v>
+      </c>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C956" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D956" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E956" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F956" t="n">
+        <v>24.7348</v>
+      </c>
+      <c r="G956" t="n">
+        <v>-979.5536186622645</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L956" t="n">
+        <v>1</v>
+      </c>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C957" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D957" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E957" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F957" t="n">
+        <v>25.8651</v>
+      </c>
+      <c r="G957" t="n">
+        <v>-979.5536186622645</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L957" t="n">
+        <v>1</v>
+      </c>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C958" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D958" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E958" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F958" t="n">
+        <v>77.21854449339207</v>
+      </c>
+      <c r="G958" t="n">
+        <v>-902.3350741688724</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L958" t="n">
+        <v>1</v>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>158600</v>
+      </c>
+      <c r="C959" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D959" t="n">
+        <v>158700</v>
+      </c>
+      <c r="E959" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F959" t="n">
+        <v>20.5824</v>
+      </c>
+      <c r="G959" t="n">
+        <v>-922.9174741688724</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L959" t="n">
+        <v>1</v>
+      </c>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C960" t="n">
+        <v>158700</v>
+      </c>
+      <c r="D960" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E960" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F960" t="n">
+        <v>13.1064013215859</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-922.9174741688724</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L960" t="n">
+        <v>1</v>
+      </c>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C961" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D961" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E961" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F961" t="n">
+        <v>5.2059</v>
+      </c>
+      <c r="G961" t="n">
+        <v>-917.7115741688724</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L961" t="n">
+        <v>1</v>
+      </c>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E962" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F962" t="n">
+        <v>14.148</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-931.8595741688724</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L962" t="n">
+        <v>1</v>
+      </c>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>159000</v>
+      </c>
+      <c r="C963" t="n">
+        <v>159100</v>
+      </c>
+      <c r="D963" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E963" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F963" t="n">
+        <v>8.505599999999999</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-923.3539741688725</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L963" t="n">
+        <v>1</v>
+      </c>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>159100</v>
+      </c>
+      <c r="C964" t="n">
+        <v>158900</v>
+      </c>
+      <c r="D964" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E964" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F964" t="n">
+        <v>67.4273</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-990.7812741688724</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L964" t="n">
+        <v>1</v>
+      </c>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C965" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D965" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E965" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F965" t="n">
+        <v>41.88169798994975</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-948.8995761789226</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L965" t="n">
+        <v>1</v>
+      </c>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>158900</v>
+      </c>
+      <c r="C966" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D966" t="n">
+        <v>159200</v>
+      </c>
+      <c r="E966" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F966" t="n">
+        <v>14.5896</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-948.8995761789226</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L966" t="n">
+        <v>1</v>
+      </c>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>159200</v>
+      </c>
+      <c r="C967" t="n">
+        <v>159300</v>
+      </c>
+      <c r="D967" t="n">
+        <v>159300</v>
+      </c>
+      <c r="E967" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F967" t="n">
+        <v>54.4659</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-894.4336761789226</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>159300</v>
+      </c>
+      <c r="C968" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D968" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E968" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F968" t="n">
+        <v>24.345</v>
+      </c>
+      <c r="G968" t="n">
+        <v>-918.7786761789226</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L968" t="n">
+        <v>1</v>
+      </c>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="n">
+        <v>159200</v>
+      </c>
+      <c r="C969" t="n">
+        <v>159300</v>
+      </c>
+      <c r="D969" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E969" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F969" t="n">
+        <v>12.923</v>
+      </c>
+      <c r="G969" t="n">
+        <v>-905.8556761789226</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L969" t="n">
+        <v>1</v>
+      </c>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="n">
+        <v>159300</v>
+      </c>
+      <c r="C970" t="n">
+        <v>159400</v>
+      </c>
+      <c r="D970" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E970" t="n">
+        <v>159200</v>
+      </c>
+      <c r="F970" t="n">
+        <v>111.1116</v>
+      </c>
+      <c r="G970" t="n">
+        <v>-794.7440761789227</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L970" t="n">
+        <v>1</v>
+      </c>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="n">
+        <v>159300</v>
+      </c>
+      <c r="C971" t="n">
+        <v>159300</v>
+      </c>
+      <c r="D971" t="n">
+        <v>159600</v>
+      </c>
+      <c r="E971" t="n">
+        <v>159300</v>
+      </c>
+      <c r="F971" t="n">
+        <v>82.67993333333334</v>
+      </c>
+      <c r="G971" t="n">
+        <v>-877.424009512256</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L971" t="n">
+        <v>1</v>
+      </c>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="n">
+        <v>159400</v>
+      </c>
+      <c r="C972" t="n">
+        <v>159600</v>
+      </c>
+      <c r="D972" t="n">
+        <v>159800</v>
+      </c>
+      <c r="E972" t="n">
+        <v>159400</v>
+      </c>
+      <c r="F972" t="n">
+        <v>208.6824005840634</v>
+      </c>
+      <c r="G972" t="n">
+        <v>-668.7416089281926</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L972" t="n">
+        <v>1</v>
+      </c>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="n">
+        <v>159600</v>
+      </c>
+      <c r="C973" t="n">
+        <v>159800</v>
+      </c>
+      <c r="D973" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E973" t="n">
+        <v>159600</v>
+      </c>
+      <c r="F973" t="n">
+        <v>768.8094828369293</v>
+      </c>
+      <c r="G973" t="n">
+        <v>100.0678739087367</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L973" t="n">
+        <v>1</v>
+      </c>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="n">
+        <v>160000</v>
+      </c>
+      <c r="C974" t="n">
+        <v>160300</v>
+      </c>
+      <c r="D974" t="n">
+        <v>160500</v>
+      </c>
+      <c r="E974" t="n">
+        <v>159900</v>
+      </c>
+      <c r="F974" t="n">
+        <v>118.9177</v>
+      </c>
+      <c r="G974" t="n">
+        <v>218.9855739087367</v>
+      </c>
+      <c r="H974" t="n">
         <v>2</v>
       </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>154500</v>
-      </c>
-      <c r="K901" t="inlineStr">
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L901" t="n">
-        <v>1.022831715210356</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C902" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D902" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E902" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F902" t="n">
-        <v>50.5457</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-1227.668158104841</v>
-      </c>
-      <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C903" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D903" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E903" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F903" t="n">
-        <v>285.3589</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-942.3092581048409</v>
-      </c>
-      <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C904" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D904" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E904" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F904" t="n">
-        <v>5.0064</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-947.3156581048408</v>
-      </c>
-      <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C905" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D905" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E905" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F905" t="n">
-        <v>81.1965</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-947.3156581048408</v>
-      </c>
-      <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C906" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D906" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E906" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F906" t="n">
-        <v>131.1672</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-816.1484581048409</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C907" t="n">
-        <v>158500</v>
-      </c>
-      <c r="D907" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E907" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F907" t="n">
-        <v>8.21070138626339</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-824.3591594911043</v>
-      </c>
-      <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C908" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D908" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E908" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F908" t="n">
-        <v>56.1097</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-768.2494594911043</v>
-      </c>
-      <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C909" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D909" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E909" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F909" t="n">
-        <v>65.24048526448362</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-768.2494594911043</v>
-      </c>
-      <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C910" t="n">
-        <v>158400</v>
-      </c>
-      <c r="D910" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E910" t="n">
-        <v>158400</v>
-      </c>
-      <c r="F910" t="n">
-        <v>38.4819</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-806.7313594911043</v>
-      </c>
-      <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>158400</v>
-      </c>
-      <c r="C911" t="n">
-        <v>158300</v>
-      </c>
-      <c r="D911" t="n">
-        <v>158400</v>
-      </c>
-      <c r="E911" t="n">
-        <v>158300</v>
-      </c>
-      <c r="F911" t="n">
-        <v>59.6492</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-866.3805594911042</v>
-      </c>
-      <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>158200</v>
-      </c>
-      <c r="C912" t="n">
-        <v>158200</v>
-      </c>
-      <c r="D912" t="n">
-        <v>158200</v>
-      </c>
-      <c r="E912" t="n">
-        <v>158100</v>
-      </c>
-      <c r="F912" t="n">
-        <v>24.4575</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-890.8380594911042</v>
-      </c>
-      <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>158200</v>
-      </c>
-      <c r="C913" t="n">
-        <v>158300</v>
-      </c>
-      <c r="D913" t="n">
-        <v>158300</v>
-      </c>
-      <c r="E913" t="n">
-        <v>158200</v>
-      </c>
-      <c r="F913" t="n">
-        <v>38.1025</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-852.7355594911043</v>
-      </c>
-      <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>158200</v>
-      </c>
-      <c r="C914" t="n">
-        <v>158100</v>
-      </c>
-      <c r="D914" t="n">
-        <v>158200</v>
-      </c>
-      <c r="E914" t="n">
-        <v>158100</v>
-      </c>
-      <c r="F914" t="n">
-        <v>64.7621</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-917.4976594911043</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>158000</v>
-      </c>
-      <c r="C915" t="n">
-        <v>157800</v>
-      </c>
-      <c r="D915" t="n">
-        <v>158000</v>
-      </c>
-      <c r="E915" t="n">
-        <v>157800</v>
-      </c>
-      <c r="F915" t="n">
-        <v>165.2876</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-1082.785259491104</v>
-      </c>
-      <c r="H915" t="n">
-        <v>2</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>158000</v>
-      </c>
-      <c r="C916" t="n">
-        <v>158000</v>
-      </c>
-      <c r="D916" t="n">
-        <v>158000</v>
-      </c>
-      <c r="E916" t="n">
-        <v>158000</v>
-      </c>
-      <c r="F916" t="n">
-        <v>3.4638</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-1079.321459491104</v>
-      </c>
-      <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>157900</v>
-      </c>
-      <c r="C917" t="n">
-        <v>157900</v>
-      </c>
-      <c r="D917" t="n">
-        <v>157900</v>
-      </c>
-      <c r="E917" t="n">
-        <v>157900</v>
-      </c>
-      <c r="F917" t="n">
-        <v>82.39611146295124</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-1161.717570954055</v>
-      </c>
-      <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>157700</v>
-      </c>
-      <c r="C918" t="n">
-        <v>157900</v>
-      </c>
-      <c r="D918" t="n">
-        <v>157900</v>
-      </c>
-      <c r="E918" t="n">
-        <v>157700</v>
-      </c>
-      <c r="F918" t="n">
-        <v>44.5022</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-1161.717570954055</v>
-      </c>
-      <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>158000</v>
-      </c>
-      <c r="C919" t="n">
-        <v>158200</v>
-      </c>
-      <c r="D919" t="n">
-        <v>158300</v>
-      </c>
-      <c r="E919" t="n">
-        <v>157800</v>
-      </c>
-      <c r="F919" t="n">
-        <v>64.81270000000001</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-1096.904870954055</v>
-      </c>
-      <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>158300</v>
-      </c>
-      <c r="C920" t="n">
-        <v>158400</v>
-      </c>
-      <c r="D920" t="n">
-        <v>158400</v>
-      </c>
-      <c r="E920" t="n">
-        <v>158300</v>
-      </c>
-      <c r="F920" t="n">
-        <v>56.7106</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-1040.194270954055</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>158400</v>
-      </c>
-      <c r="C921" t="n">
-        <v>158400</v>
-      </c>
-      <c r="D921" t="n">
-        <v>158400</v>
-      </c>
-      <c r="E921" t="n">
-        <v>158400</v>
-      </c>
-      <c r="F921" t="n">
-        <v>3.5354</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-1040.194270954055</v>
-      </c>
-      <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C922" t="n">
-        <v>158500</v>
-      </c>
-      <c r="D922" t="n">
-        <v>158500</v>
-      </c>
-      <c r="E922" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F922" t="n">
-        <v>20.5648</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-1019.629470954055</v>
-      </c>
-      <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C923" t="n">
-        <v>158500</v>
-      </c>
-      <c r="D923" t="n">
-        <v>158500</v>
-      </c>
-      <c r="E923" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F923" t="n">
-        <v>15.2751</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-1019.629470954055</v>
-      </c>
-      <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>158300</v>
-      </c>
-      <c r="C924" t="n">
-        <v>158300</v>
-      </c>
-      <c r="D924" t="n">
-        <v>158300</v>
-      </c>
-      <c r="E924" t="n">
-        <v>158300</v>
-      </c>
-      <c r="F924" t="n">
-        <v>0.3445</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-1019.973970954055</v>
-      </c>
-      <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>158300</v>
-      </c>
-      <c r="C925" t="n">
-        <v>158300</v>
-      </c>
-      <c r="D925" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E925" t="n">
-        <v>158300</v>
-      </c>
-      <c r="F925" t="n">
-        <v>92.782</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-1019.973970954055</v>
-      </c>
-      <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>158400</v>
-      </c>
-      <c r="C926" t="n">
-        <v>158400</v>
-      </c>
-      <c r="D926" t="n">
-        <v>158400</v>
-      </c>
-      <c r="E926" t="n">
-        <v>158400</v>
-      </c>
-      <c r="F926" t="n">
-        <v>5</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-1014.973970954055</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C927" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D927" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E927" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F927" t="n">
-        <v>93.7972</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-921.1767709540554</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C928" t="n">
-        <v>159100</v>
-      </c>
-      <c r="D928" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E928" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F928" t="n">
-        <v>186.5489077938404</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-734.627863160215</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C929" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D929" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E929" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F929" t="n">
-        <v>2.8165</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-737.4443631602151</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C930" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D930" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E930" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F930" t="n">
-        <v>12.1362</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-749.5805631602151</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C931" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D931" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E931" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F931" t="n">
-        <v>2.8866</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-746.693963160215</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
-      <c r="L931" t="n">
-        <v>1</v>
-      </c>
-      <c r="M931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C932" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D932" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E932" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F932" t="n">
-        <v>5.6471</v>
-      </c>
-      <c r="G932" t="n">
-        <v>-746.693963160215</v>
-      </c>
-      <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
-      <c r="L932" t="n">
-        <v>1</v>
-      </c>
-      <c r="M932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C933" t="n">
-        <v>159400</v>
-      </c>
-      <c r="D933" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E933" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F933" t="n">
-        <v>268.7608492471769</v>
-      </c>
-      <c r="G933" t="n">
-        <v>-477.9331139130381</v>
-      </c>
-      <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
-      <c r="L933" t="n">
-        <v>1</v>
-      </c>
-      <c r="M933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C934" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D934" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E934" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F934" t="n">
-        <v>198.6871</v>
-      </c>
-      <c r="G934" t="n">
-        <v>-676.6202139130381</v>
-      </c>
-      <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
-      <c r="L934" t="n">
-        <v>1</v>
-      </c>
-      <c r="M934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C935" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D935" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E935" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F935" t="n">
-        <v>168.7357</v>
-      </c>
-      <c r="G935" t="n">
-        <v>-845.3559139130382</v>
-      </c>
-      <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
-      <c r="L935" t="n">
-        <v>1</v>
-      </c>
-      <c r="M935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C936" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D936" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E936" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F936" t="n">
-        <v>53.269</v>
-      </c>
-      <c r="G936" t="n">
-        <v>-898.6249139130382</v>
-      </c>
-      <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
-      <c r="L936" t="n">
-        <v>1</v>
-      </c>
-      <c r="M936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C937" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D937" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E937" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F937" t="n">
-        <v>31.4074</v>
-      </c>
-      <c r="G937" t="n">
-        <v>-867.2175139130381</v>
-      </c>
-      <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
-      <c r="L937" t="n">
-        <v>1</v>
-      </c>
-      <c r="M937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C938" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D938" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E938" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F938" t="n">
-        <v>220.6648</v>
-      </c>
-      <c r="G938" t="n">
-        <v>-1087.882313913038</v>
-      </c>
-      <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
-      <c r="L938" t="n">
-        <v>1</v>
-      </c>
-      <c r="M938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C939" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D939" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E939" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F939" t="n">
-        <v>39.3616</v>
-      </c>
-      <c r="G939" t="n">
-        <v>-1087.882313913038</v>
-      </c>
-      <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
-      <c r="L939" t="n">
-        <v>1</v>
-      </c>
-      <c r="M939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C940" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D940" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E940" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F940" t="n">
-        <v>110.9065</v>
-      </c>
-      <c r="G940" t="n">
-        <v>-976.9758139130381</v>
-      </c>
-      <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C941" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D941" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E941" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F941" t="n">
-        <v>144.0631304266531</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-832.912683486385</v>
-      </c>
-      <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C942" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D942" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E942" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F942" t="n">
-        <v>6.5459</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-839.458583486385</v>
-      </c>
-      <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C943" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D943" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E943" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F943" t="n">
-        <v>17.0648</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-822.393783486385</v>
-      </c>
-      <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C944" t="n">
-        <v>159100</v>
-      </c>
-      <c r="D944" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E944" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F944" t="n">
-        <v>75.3540648241206</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-747.0397186622645</v>
-      </c>
-      <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
-      <c r="L944" t="n">
-        <v>1</v>
-      </c>
-      <c r="M944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>159200</v>
-      </c>
-      <c r="C945" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D945" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E945" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F945" t="n">
-        <v>90.1383</v>
-      </c>
-      <c r="G945" t="n">
-        <v>-837.1780186622644</v>
-      </c>
-      <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
-      <c r="L945" t="n">
-        <v>1</v>
-      </c>
-      <c r="M945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C946" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D946" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E946" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F946" t="n">
-        <v>6.9845</v>
-      </c>
-      <c r="G946" t="n">
-        <v>-830.1935186622644</v>
-      </c>
-      <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
-      <c r="L946" t="n">
-        <v>1</v>
-      </c>
-      <c r="M946" t="inlineStr"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C947" t="n">
-        <v>159100</v>
-      </c>
-      <c r="D947" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E947" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F947" t="n">
-        <v>10.5787</v>
-      </c>
-      <c r="G947" t="n">
-        <v>-819.6148186622644</v>
-      </c>
-      <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
-      <c r="L947" t="n">
-        <v>1</v>
-      </c>
-      <c r="M947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C948" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D948" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E948" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F948" t="n">
-        <v>28.2968</v>
-      </c>
-      <c r="G948" t="n">
-        <v>-847.9116186622643</v>
-      </c>
-      <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
-      <c r="L948" t="n">
-        <v>1</v>
-      </c>
-      <c r="M948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E949" t="n">
-        <v>159000</v>
-      </c>
-      <c r="F949" t="n">
-        <v>11.0474</v>
-      </c>
-      <c r="G949" t="n">
-        <v>-847.9116186622643</v>
-      </c>
-      <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
-      <c r="L949" t="n">
-        <v>1</v>
-      </c>
-      <c r="M949" t="inlineStr"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C950" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D950" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E950" t="n">
-        <v>158800</v>
-      </c>
-      <c r="F950" t="n">
-        <v>110.0832</v>
-      </c>
-      <c r="G950" t="n">
-        <v>-957.9948186622644</v>
-      </c>
-      <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
-      <c r="L950" t="n">
-        <v>1</v>
-      </c>
-      <c r="M950" t="inlineStr"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="B951" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C951" t="n">
-        <v>158800</v>
-      </c>
-      <c r="D951" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E951" t="n">
-        <v>158700</v>
-      </c>
-      <c r="F951" t="n">
-        <v>73.6096</v>
-      </c>
-      <c r="G951" t="n">
-        <v>-957.9948186622644</v>
-      </c>
-      <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
-      <c r="L951" t="n">
-        <v>1</v>
-      </c>
-      <c r="M951" t="inlineStr"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-      <c r="B952" t="n">
-        <v>158800</v>
-      </c>
-      <c r="C952" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D952" t="n">
-        <v>158800</v>
-      </c>
-      <c r="E952" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F952" t="n">
-        <v>64.2754</v>
-      </c>
-      <c r="G952" t="n">
-        <v>-1022.270218662264</v>
-      </c>
-      <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
-      <c r="L952" t="n">
-        <v>1</v>
-      </c>
-      <c r="M952" t="inlineStr"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B953" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C953" t="n">
-        <v>158500</v>
-      </c>
-      <c r="D953" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E953" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F953" t="n">
-        <v>8.4335</v>
-      </c>
-      <c r="G953" t="n">
-        <v>-1030.703718662264</v>
-      </c>
-      <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
-      <c r="L953" t="n">
-        <v>1</v>
-      </c>
-      <c r="M953" t="inlineStr"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-      <c r="B954" t="n">
-        <v>158500</v>
-      </c>
-      <c r="C954" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D954" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E954" t="n">
-        <v>158500</v>
-      </c>
-      <c r="F954" t="n">
-        <v>26.4153</v>
-      </c>
-      <c r="G954" t="n">
-        <v>-1004.288418662264</v>
-      </c>
-      <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
-      <c r="L954" t="n">
-        <v>1</v>
-      </c>
-      <c r="M954" t="inlineStr"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="B955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="D955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="E955" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F955" t="n">
-        <v>5.8279</v>
-      </c>
-      <c r="G955" t="n">
-        <v>-1004.288418662264</v>
-      </c>
-      <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
-      <c r="L955" t="n">
-        <v>1</v>
-      </c>
-      <c r="M955" t="inlineStr"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="B956" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C956" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D956" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E956" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F956" t="n">
-        <v>24.7348</v>
-      </c>
-      <c r="G956" t="n">
-        <v>-979.5536186622645</v>
-      </c>
-      <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
-      <c r="L956" t="n">
-        <v>1</v>
-      </c>
-      <c r="M956" t="inlineStr"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B957" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C957" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D957" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E957" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F957" t="n">
-        <v>25.8651</v>
-      </c>
-      <c r="G957" t="n">
-        <v>-979.5536186622645</v>
-      </c>
-      <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
-      <c r="L957" t="n">
-        <v>1</v>
-      </c>
-      <c r="M957" t="inlineStr"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-      <c r="B958" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C958" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D958" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E958" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F958" t="n">
-        <v>77.21854449339207</v>
-      </c>
-      <c r="G958" t="n">
-        <v>-902.3350741688724</v>
-      </c>
-      <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
-      <c r="L958" t="n">
-        <v>1</v>
-      </c>
-      <c r="M958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>158600</v>
-      </c>
-      <c r="C959" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D959" t="n">
-        <v>158700</v>
-      </c>
-      <c r="E959" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F959" t="n">
-        <v>20.5824</v>
-      </c>
-      <c r="G959" t="n">
-        <v>-922.9174741688724</v>
-      </c>
-      <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
-      <c r="L959" t="n">
-        <v>1</v>
-      </c>
-      <c r="M959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>158700</v>
-      </c>
-      <c r="C960" t="n">
-        <v>158700</v>
-      </c>
-      <c r="D960" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E960" t="n">
-        <v>158600</v>
-      </c>
-      <c r="F960" t="n">
-        <v>13.1064013215859</v>
-      </c>
-      <c r="G960" t="n">
-        <v>-922.9174741688724</v>
-      </c>
-      <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
-      <c r="L960" t="n">
-        <v>1</v>
-      </c>
-      <c r="M960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C961" t="n">
-        <v>159000</v>
-      </c>
-      <c r="D961" t="n">
-        <v>159000</v>
-      </c>
-      <c r="E961" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F961" t="n">
-        <v>5.2059</v>
-      </c>
-      <c r="G961" t="n">
-        <v>-917.7115741688724</v>
-      </c>
-      <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
-      <c r="L961" t="n">
-        <v>1</v>
-      </c>
-      <c r="M961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="E962" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F962" t="n">
-        <v>14.148</v>
-      </c>
-      <c r="G962" t="n">
-        <v>-931.8595741688724</v>
-      </c>
-      <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
-      <c r="L962" t="n">
-        <v>1</v>
-      </c>
-      <c r="M962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>159000</v>
-      </c>
-      <c r="C963" t="n">
-        <v>159100</v>
-      </c>
-      <c r="D963" t="n">
-        <v>159100</v>
-      </c>
-      <c r="E963" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F963" t="n">
-        <v>8.505599999999999</v>
-      </c>
-      <c r="G963" t="n">
-        <v>-923.3539741688725</v>
-      </c>
-      <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
-      <c r="L963" t="n">
-        <v>1</v>
-      </c>
-      <c r="M963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>159100</v>
-      </c>
-      <c r="C964" t="n">
-        <v>158900</v>
-      </c>
-      <c r="D964" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E964" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F964" t="n">
-        <v>67.4273</v>
-      </c>
-      <c r="G964" t="n">
-        <v>-990.7812741688724</v>
-      </c>
-      <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C965" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D965" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E965" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F965" t="n">
-        <v>41.88169798994975</v>
-      </c>
-      <c r="G965" t="n">
-        <v>-948.8995761789226</v>
-      </c>
-      <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
-      <c r="L965" t="n">
-        <v>1</v>
-      </c>
-      <c r="M965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>158900</v>
-      </c>
-      <c r="C966" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D966" t="n">
-        <v>159200</v>
-      </c>
-      <c r="E966" t="n">
-        <v>158900</v>
-      </c>
-      <c r="F966" t="n">
-        <v>14.5896</v>
-      </c>
-      <c r="G966" t="n">
-        <v>-948.8995761789226</v>
-      </c>
-      <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
-      <c r="L966" t="n">
-        <v>1</v>
-      </c>
-      <c r="M966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>159200</v>
-      </c>
-      <c r="C967" t="n">
-        <v>159300</v>
-      </c>
-      <c r="D967" t="n">
-        <v>159300</v>
-      </c>
-      <c r="E967" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F967" t="n">
-        <v>54.4659</v>
-      </c>
-      <c r="G967" t="n">
-        <v>-894.4336761789226</v>
-      </c>
-      <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
-      <c r="L967" t="n">
-        <v>1</v>
-      </c>
-      <c r="M967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>159300</v>
-      </c>
-      <c r="C968" t="n">
-        <v>159200</v>
-      </c>
-      <c r="D968" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E968" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F968" t="n">
-        <v>24.345</v>
-      </c>
-      <c r="G968" t="n">
-        <v>-918.7786761789226</v>
-      </c>
-      <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
-      <c r="L968" t="n">
-        <v>1</v>
-      </c>
-      <c r="M968" t="inlineStr"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>159200</v>
-      </c>
-      <c r="C969" t="n">
-        <v>159300</v>
-      </c>
-      <c r="D969" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E969" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F969" t="n">
-        <v>12.923</v>
-      </c>
-      <c r="G969" t="n">
-        <v>-905.8556761789226</v>
-      </c>
-      <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
-      <c r="L969" t="n">
-        <v>1</v>
-      </c>
-      <c r="M969" t="inlineStr"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>159300</v>
-      </c>
-      <c r="C970" t="n">
-        <v>159400</v>
-      </c>
-      <c r="D970" t="n">
-        <v>159400</v>
-      </c>
-      <c r="E970" t="n">
-        <v>159200</v>
-      </c>
-      <c r="F970" t="n">
-        <v>111.1116</v>
-      </c>
-      <c r="G970" t="n">
-        <v>-794.7440761789227</v>
-      </c>
-      <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
-      <c r="L970" t="n">
-        <v>1</v>
-      </c>
-      <c r="M970" t="inlineStr"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>159300</v>
-      </c>
-      <c r="C971" t="n">
-        <v>159300</v>
-      </c>
-      <c r="D971" t="n">
-        <v>159600</v>
-      </c>
-      <c r="E971" t="n">
-        <v>159300</v>
-      </c>
-      <c r="F971" t="n">
-        <v>82.67993333333334</v>
-      </c>
-      <c r="G971" t="n">
-        <v>-877.424009512256</v>
-      </c>
-      <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
-      <c r="L971" t="n">
-        <v>1</v>
-      </c>
-      <c r="M971" t="inlineStr"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>159400</v>
-      </c>
-      <c r="C972" t="n">
-        <v>159600</v>
-      </c>
-      <c r="D972" t="n">
-        <v>159800</v>
-      </c>
-      <c r="E972" t="n">
-        <v>159400</v>
-      </c>
-      <c r="F972" t="n">
-        <v>208.6824005840634</v>
-      </c>
-      <c r="G972" t="n">
-        <v>-668.7416089281926</v>
-      </c>
-      <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
-      <c r="L972" t="n">
-        <v>1</v>
-      </c>
-      <c r="M972" t="inlineStr"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>159600</v>
-      </c>
-      <c r="C973" t="n">
-        <v>159800</v>
-      </c>
-      <c r="D973" t="n">
-        <v>160000</v>
-      </c>
-      <c r="E973" t="n">
-        <v>159600</v>
-      </c>
-      <c r="F973" t="n">
-        <v>768.8094828369293</v>
-      </c>
-      <c r="G973" t="n">
-        <v>100.0678739087367</v>
-      </c>
-      <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
-      <c r="L973" t="n">
-        <v>1</v>
-      </c>
-      <c r="M973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>160000</v>
-      </c>
-      <c r="C974" t="n">
-        <v>160300</v>
-      </c>
-      <c r="D974" t="n">
-        <v>160500</v>
-      </c>
-      <c r="E974" t="n">
-        <v>159900</v>
-      </c>
-      <c r="F974" t="n">
-        <v>118.9177</v>
-      </c>
-      <c r="G974" t="n">
-        <v>218.9855739087367</v>
-      </c>
-      <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
@@ -33564,7 +33550,7 @@
         <v>-237.5156260912633</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33597,7 +33583,7 @@
         <v>-177.0914243478013</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33630,7 +33616,7 @@
         <v>-320.6781243478013</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33663,7 +33649,7 @@
         <v>-543.6625243478013</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33696,7 +33682,7 @@
         <v>-1088.567624347801</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33729,7 +33715,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33762,7 +33748,7 @@
         <v>-1003.912024347801</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33795,7 +33781,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33828,7 +33814,7 @@
         <v>-979.3386243478012</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33861,7 +33847,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33894,7 +33880,7 @@
         <v>-998.8141243478012</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33927,7 +33913,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33960,7 +33946,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33993,7 +33979,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34026,7 +34012,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34059,7 +34045,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34092,7 +34078,7 @@
         <v>-914.9574677393224</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34125,7 +34111,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34158,7 +34144,7 @@
         <v>-1218.794867739322</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34191,7 +34177,7 @@
         <v>-1319.216967739322</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34224,7 +34210,7 @@
         <v>-1352.295567739322</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34257,7 +34243,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34290,7 +34276,7 @@
         <v>-1427.758267739322</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34323,7 +34309,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34356,7 +34342,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34389,7 +34375,7 @@
         <v>-1677.285367739323</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34422,7 +34408,7 @@
         <v>-1583.489367739322</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34455,7 +34441,7 @@
         <v>-1554.695967739322</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34488,7 +34474,7 @@
         <v>-1677.295667739322</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34521,7 +34507,7 @@
         <v>-1745.721767739322</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
